--- a/Ausgaben2022.xlsx
+++ b/Ausgaben2022.xlsx
@@ -5,19 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Januar" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Februar" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Maerz" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="RücklageFun" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="TagesgeldPlus_Ruecklage" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Putzen" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Hausausgaben_Rest" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Rechnungen Haus" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Nicolai" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Geplante Hausausgaben" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="April" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Mai" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="RücklageFun" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="TagesgeldPlus_Ruecklage" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Putzen" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Hausausgaben_Rest" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Rechnungen Haus" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Nicolai" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Geplante Hausausgaben" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="226">
   <si>
     <t xml:space="preserve">Gehalt</t>
   </si>
@@ -406,6 +408,9 @@
     <t xml:space="preserve">Takko</t>
   </si>
   <si>
+    <t xml:space="preserve">KW15</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baerbel</t>
   </si>
   <si>
@@ -431,6 +436,78 @@
   </si>
   <si>
     <t xml:space="preserve">Staubsauger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Böttcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Höffner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial c++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">365Rider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shimano Mtb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolumbien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medpex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bepanthen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boxen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trinkgeld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zahnbürste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venilkerne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">applied c++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine Kinder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Befestigung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonhoefer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schrauben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glashater</t>
   </si>
   <si>
     <t xml:space="preserve">Summe</t>
@@ -638,7 +715,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="13">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; €&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00&quot; €&quot;;[RED]#,##0.00&quot; €&quot;"/>
@@ -647,11 +724,10 @@
     <numFmt numFmtId="169" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
     <numFmt numFmtId="170" formatCode="0.00\ %"/>
     <numFmt numFmtId="171" formatCode="#,##0.00&quot; €&quot;;[RED]\-#,##0.00&quot; €&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0\ [$€-407];\-#,##0\ [$€-407]"/>
-    <numFmt numFmtId="173" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="172" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="173" formatCode="#,##0\ [$€-407];\-#,##0\ [$€-407]"/>
     <numFmt numFmtId="174" formatCode="#,##0&quot; €&quot;;\-#,##0&quot; €&quot;"/>
-    <numFmt numFmtId="175" formatCode="#,##0.00&quot; €&quot;;[RED]\-#,##0.00&quot; €&quot;"/>
-    <numFmt numFmtId="176" formatCode="#,##0.00&quot; €&quot;;\-#,##0.00&quot; €&quot;"/>
+    <numFmt numFmtId="175" formatCode="#,##0.00&quot; €&quot;;\-#,##0.00&quot; €&quot;"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -764,7 +840,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -885,15 +961,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -901,7 +981,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -913,7 +993,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -925,11 +1005,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2012,17 +2092,822 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="11.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="39" t="n">
+        <f aca="false">SUM(C3:C1501)</f>
+        <v>116363.75</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="39" t="n">
+        <f aca="false">SUM(F3:F1501)</f>
+        <v>15473.91</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" s="39" t="n">
+        <f aca="false">SUM(I3:I1501)</f>
+        <v>9684.75</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="39" t="n">
+        <f aca="false">SUM(L3:L1501)</f>
+        <v>10440</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="L2" s="39"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="39" t="n">
+        <v>145.88</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="39"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="35" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="39" t="n">
+        <v>3158.55</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="39"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="35" t="n">
+        <v>44017</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="39" t="n">
+        <v>2923.52</v>
+      </c>
+      <c r="D5" s="35" t="n">
+        <v>44017</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="39" t="n">
+        <v>2923.52</v>
+      </c>
+      <c r="G5" s="35" t="n">
+        <v>44034</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5" s="39" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J5" s="35"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="39"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="35" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="39" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D6" s="35" t="n">
+        <v>44080</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="39" t="n">
+        <v>1516</v>
+      </c>
+      <c r="G6" s="35" t="n">
+        <v>44116</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" s="39" t="n">
+        <v>1665.25</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="39"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="35" t="n">
+        <v>44061</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="39" t="n">
+        <v>414.99</v>
+      </c>
+      <c r="D7" s="35" t="n">
+        <v>44080</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="39" t="n">
+        <v>1856</v>
+      </c>
+      <c r="G7" s="35" t="n">
+        <v>44116</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="I7" s="39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="39"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="35" t="n">
+        <v>44078</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="39" t="n">
+        <v>10440</v>
+      </c>
+      <c r="D8" s="35" t="n">
+        <v>44094</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="39" t="n">
+        <v>1850.2</v>
+      </c>
+      <c r="J8" s="35" t="n">
+        <v>44078</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="L8" s="39" t="n">
+        <v>10440</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="35" t="n">
+        <v>44080</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="39" t="n">
+        <v>1516</v>
+      </c>
+      <c r="D9" s="35" t="n">
+        <v>44106</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="39" t="n">
+        <v>807.73</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="39"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="35" t="n">
+        <v>44080</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="39" t="n">
+        <v>1856</v>
+      </c>
+      <c r="D10" s="35" t="n">
+        <v>44140</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="39" t="n">
+        <v>538.12</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="39"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="35" t="n">
+        <v>44094</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="39" t="n">
+        <v>1850.2</v>
+      </c>
+      <c r="D11" s="35" t="n">
+        <v>44140</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="39" t="n">
+        <v>1305.64</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="39"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="35" t="n">
+        <v>44103</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="39" t="n">
+        <v>3780.44</v>
+      </c>
+      <c r="D12" s="35" t="n">
+        <v>44606</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="39" t="n">
+        <v>4676.7</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="35" t="n">
+        <v>44106</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="39" t="n">
+        <v>807.73</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="35" t="n">
+        <v>44111</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="39" t="n">
+        <v>335.41</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="39"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="35" t="n">
+        <v>44116</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="39" t="n">
+        <v>1665.25</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="39"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="39"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="35" t="n">
+        <v>44116</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="39"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="39"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="35" t="n">
+        <v>44117</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="39" t="n">
+        <v>190</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="35" t="n">
+        <v>44128</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="39" t="n">
+        <v>233.68</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="39"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="35" t="n">
+        <v>44139</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="39" t="n">
+        <v>10080.37</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="39"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="35" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="39" t="n">
+        <v>538.12</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="39"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="35" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="39" t="n">
+        <v>1305.64</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="39"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="35" t="n">
+        <v>44167</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="39" t="n">
+        <v>6059.92</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="39"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="35" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="39" t="n">
+        <v>242.88</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="35" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="39" t="n">
+        <v>429.26</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="35" t="n">
+        <v>44180</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="39" t="n">
+        <v>2282.23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="35" t="n">
+        <v>44180</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="39" t="n">
+        <v>1608.51</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="35" t="n">
+        <v>44246</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="39" t="n">
+        <v>3748.86</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="35" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="39" t="n">
+        <v>6779.29</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="35" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="39" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="35" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="39" t="n">
+        <v>14875</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="35" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="39" t="n">
+        <v>1083.95</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="35" t="n">
+        <v>44292</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="39" t="n">
+        <v>1892.6</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="35" t="n">
+        <v>44328</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="39" t="n">
+        <v>4250.68</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="35" t="n">
+        <v>44328</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="39" t="n">
+        <v>8496.11</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="35" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="39" t="n">
+        <v>316.78</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="35" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="39" t="n">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="35" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="39" t="n">
+        <v>8449</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="35" t="n">
+        <v>44383</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" s="39" t="n">
+        <v>2999.01</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="35" t="n">
+        <v>44397</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="39" t="n">
+        <v>758.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A3:C18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="28" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="n">
+        <v>43854</v>
+      </c>
+      <c r="B3" s="40" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="41" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="41" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41" t="n">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="41" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C12" s="41"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="41" t="n">
+        <v>150</v>
+      </c>
+      <c r="C13" s="41"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="41" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C14" s="41"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="41" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C15" s="41"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="42" t="n">
+        <f aca="false">SUM(B12:B15)</f>
+        <v>4250</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="23.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="23.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="38" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="38" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="39" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="39" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,15 +2916,15 @@
       <c r="K1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="42" t="n">
+      <c r="A2" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="43" t="n">
         <f aca="false">SUM(D2:D999)</f>
         <v>90526.02</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="E2" s="42" t="n">
+      <c r="E2" s="43" t="n">
         <f aca="false">SUM(E5:E47)</f>
         <v>21341.06</v>
       </c>
@@ -2051,317 +2936,317 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>175</v>
+      <c r="A4" s="31" t="s">
+        <v>200</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="J4" s="30"/>
+        <v>159</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="28"/>
-      <c r="M4" s="30"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="38" t="n">
+        <v>210</v>
+      </c>
+      <c r="B5" s="39" t="n">
         <v>4756.87</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="38" t="n">
+        <v>211</v>
+      </c>
+      <c r="B6" s="39" t="n">
         <v>1146.3</v>
       </c>
-      <c r="C6" s="38" t="n">
+      <c r="C6" s="39" t="n">
         <f aca="false">SUM(B5,B6)</f>
         <v>5903.17</v>
       </c>
-      <c r="E6" s="38" t="n">
+      <c r="E6" s="39" t="n">
         <v>1146.3</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
+      <c r="L6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="38" t="n">
+        <v>187</v>
+      </c>
+      <c r="B7" s="39" t="n">
         <v>2371.91</v>
       </c>
-      <c r="C7" s="38" t="n">
+      <c r="C7" s="39" t="n">
         <f aca="false">SUM(C6,B7)</f>
         <v>8275.08</v>
       </c>
-      <c r="E7" s="38" t="n">
+      <c r="E7" s="39" t="n">
         <v>2371.91</v>
       </c>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="38" t="n">
+        <v>212</v>
+      </c>
+      <c r="B8" s="39" t="n">
         <v>2186.62</v>
       </c>
-      <c r="C8" s="38" t="n">
+      <c r="C8" s="39" t="n">
         <f aca="false">SUM(C7,B8)</f>
         <v>10461.7</v>
       </c>
-      <c r="E8" s="38" t="n">
+      <c r="E8" s="39" t="n">
         <v>2186.62</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="38" t="n">
+        <v>189</v>
+      </c>
+      <c r="B9" s="39" t="n">
         <v>3114.23</v>
       </c>
-      <c r="C9" s="38" t="n">
+      <c r="C9" s="39" t="n">
         <f aca="false">SUM(C8,B9)</f>
         <v>13575.93</v>
       </c>
-      <c r="E9" s="38" t="n">
+      <c r="E9" s="39" t="n">
         <v>3114.23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="38" t="n">
+        <v>213</v>
+      </c>
+      <c r="B10" s="39" t="n">
         <v>12270.95</v>
       </c>
-      <c r="C10" s="38" t="n">
+      <c r="C10" s="39" t="n">
         <f aca="false">SUM(C9,B10)</f>
         <v>25846.88</v>
       </c>
-      <c r="D10" s="42" t="n">
+      <c r="D10" s="43" t="n">
         <f aca="false">C10</f>
         <v>25846.88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="30"/>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30" t="s">
-        <v>173</v>
+      <c r="A12" s="31" t="s">
+        <v>198</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="30"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" s="38" t="n">
+        <v>214</v>
+      </c>
+      <c r="B13" s="39" t="n">
         <v>5000</v>
       </c>
-      <c r="C13" s="38" t="n">
+      <c r="C13" s="39" t="n">
         <f aca="false">B13</f>
         <v>5000</v>
       </c>
-      <c r="D13" s="42" t="n">
+      <c r="D13" s="43" t="n">
         <f aca="false">C13</f>
         <v>5000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="28"/>
-      <c r="D14" s="30"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30" t="s">
-        <v>179</v>
+      <c r="A15" s="31" t="s">
+        <v>204</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
-      <c r="D15" s="30"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16" s="38" t="n">
+        <v>215</v>
+      </c>
+      <c r="B16" s="39" t="n">
         <v>13634.43</v>
       </c>
-      <c r="C16" s="38" t="n">
+      <c r="C16" s="39" t="n">
         <f aca="false">B16</f>
         <v>13634.43</v>
       </c>
-      <c r="D16" s="42" t="n">
+      <c r="D16" s="43" t="n">
         <f aca="false">C16</f>
         <v>13634.43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="30"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="s">
-        <v>191</v>
+      <c r="A18" s="31" t="s">
+        <v>216</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="30"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="B19" s="38" t="n">
+        <v>217</v>
+      </c>
+      <c r="B19" s="39" t="n">
         <v>10000</v>
       </c>
-      <c r="C19" s="38" t="n">
+      <c r="C19" s="39" t="n">
         <f aca="false">B19</f>
         <v>10000</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="38" t="n">
+      <c r="D19" s="31"/>
+      <c r="E19" s="39" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="B20" s="38" t="n">
+        <v>218</v>
+      </c>
+      <c r="B20" s="39" t="n">
         <v>15000</v>
       </c>
-      <c r="C20" s="38" t="n">
+      <c r="C20" s="39" t="n">
         <f aca="false">SUM(B19,B20)</f>
         <v>25000</v>
       </c>
-      <c r="D20" s="42" t="n">
+      <c r="D20" s="43" t="n">
         <f aca="false">C20</f>
         <v>25000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="30"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30" t="s">
-        <v>194</v>
+      <c r="A22" s="31" t="s">
+        <v>219</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" s="38" t="n">
+        <v>220</v>
+      </c>
+      <c r="B23" s="39" t="n">
         <v>4433.44</v>
       </c>
-      <c r="C23" s="38" t="n">
+      <c r="C23" s="39" t="n">
         <f aca="false">B23</f>
         <v>4433.44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="B24" s="38" t="n">
+        <v>221</v>
+      </c>
+      <c r="B24" s="39" t="n">
         <v>4633.27</v>
       </c>
-      <c r="C24" s="38" t="n">
+      <c r="C24" s="39" t="n">
         <f aca="false">SUM(B23,B24)</f>
         <v>9066.71</v>
       </c>
-      <c r="D24" s="42" t="n">
+      <c r="D24" s="43" t="n">
         <f aca="false">C24</f>
         <v>9066.71</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="30" t="s">
-        <v>197</v>
+      <c r="A26" s="31" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="B27" s="38" t="n">
+        <v>213</v>
+      </c>
+      <c r="B27" s="39" t="n">
         <v>2376</v>
       </c>
-      <c r="C27" s="38" t="n">
+      <c r="C27" s="39" t="n">
         <f aca="false">B27</f>
         <v>2376</v>
       </c>
-      <c r="D27" s="42" t="n">
+      <c r="D27" s="43" t="n">
         <f aca="false">C27</f>
         <v>2376</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="30" t="s">
-        <v>198</v>
+      <c r="A29" s="31" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="B30" s="38" t="n">
+        <v>224</v>
+      </c>
+      <c r="B30" s="39" t="n">
         <v>7080</v>
       </c>
-      <c r="C30" s="38" t="n">
+      <c r="C30" s="39" t="n">
         <f aca="false">B30</f>
         <v>7080</v>
       </c>
-      <c r="D30" s="42" t="n">
+      <c r="D30" s="43" t="n">
         <f aca="false">C30</f>
         <v>7080</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30" t="s">
-        <v>200</v>
+      <c r="A32" s="31" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="B33" s="38" t="n">
+        <v>224</v>
+      </c>
+      <c r="B33" s="39" t="n">
         <v>2522</v>
       </c>
-      <c r="C33" s="38" t="n">
+      <c r="C33" s="39" t="n">
         <f aca="false">B33</f>
         <v>2522</v>
       </c>
-      <c r="D33" s="42" t="n">
+      <c r="D33" s="43" t="n">
         <f aca="false">C33</f>
         <v>2522</v>
       </c>
-      <c r="E33" s="38" t="n">
+      <c r="E33" s="39" t="n">
         <v>2522</v>
       </c>
     </row>
@@ -2771,7 +3656,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="17" t="n">
         <f aca="false">M12-M11</f>
-        <v>-30.55</v>
+        <v>-30.5500000000002</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="18"/>
@@ -3343,8 +4228,8 @@
   </sheetPr>
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M31" activeCellId="0" sqref="M31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3679,12 +4564,12 @@
       </c>
       <c r="K12" s="16" t="n">
         <f aca="false">M12/B4</f>
-        <v>0.468438927274857</v>
+        <v>0.561472275993194</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="10" t="n">
         <f aca="false">SUM(M14:M1048576)</f>
-        <v>1360</v>
+        <v>1630.1</v>
       </c>
       <c r="N12" s="16" t="n">
         <f aca="false">P12/B4</f>
@@ -3731,13 +4616,13 @@
       <c r="L13" s="18"/>
       <c r="M13" s="17" t="n">
         <f aca="false">M12-M11</f>
-        <v>-266.793</v>
+        <v>3.30699999999956</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="18"/>
       <c r="P13" s="17" t="n">
         <f aca="false">P12-P11</f>
-        <v>-9.48899999999998</v>
+        <v>-9.48900000000003</v>
       </c>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
@@ -4090,6 +4975,12 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="30" t="n">
+        <v>44659</v>
+      </c>
       <c r="H25" s="1" t="s">
         <v>78</v>
       </c>
@@ -4100,7 +4991,7 @@
         <v>25</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>104</v>
@@ -4120,10 +5011,10 @@
         <v>25</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M26" s="2" t="n">
         <v>23</v>
@@ -4131,7 +5022,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H27" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I27" s="28"/>
       <c r="J27" s="2" t="n">
@@ -4139,10 +5030,10 @@
         <v>-70</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M27" s="2" t="n">
         <v>11</v>
@@ -4153,7 +5044,7 @@
         <v>45</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J28" s="2" t="n">
         <v>25</v>
@@ -4169,30 +5060,63 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>50</v>
+      </c>
       <c r="K29" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M29" s="2" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>-50</v>
+      </c>
       <c r="K30" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M30" s="2" t="n">
         <v>46</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K32" s="19"/>
+      <c r="K32" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="L32" s="28"/>
+      <c r="M32" s="2" t="n">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K34" s="19"/>
@@ -4254,152 +5178,919 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B16"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="28" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="21" style="1" width="11.42"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="2"/>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="31" t="e">
-        <f aca="false">SUM(B4:B16)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="31"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="31" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="31" t="n">
-        <f aca="false">Januar!P14</f>
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
+      <c r="B2" s="2" t="n">
+        <v>2903.26</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <f aca="false">SUM(S14:S1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <f aca="false">SUM(B2:B3)</f>
+        <v>2903.26</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="n">
+        <f aca="false">B2*B9</f>
+        <v>290.326</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11" t="n">
+        <f aca="false">B2*E9</f>
+        <v>290.326</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10" t="n">
+        <f aca="false">H9*B2</f>
+        <v>290.326</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10" t="n">
+        <f aca="false">K9*B2</f>
+        <v>1596.793</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="10" t="n">
+        <f aca="false">B2*N9</f>
+        <v>435.489</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" s="9"/>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="n">
+        <f aca="false">B9*B4</f>
+        <v>290.326</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="11" t="n">
+        <f aca="false">E9*B4</f>
+        <v>290.326</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10" t="n">
+        <f aca="false">B4*H9</f>
+        <v>290.326</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0.586837091332735</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10" t="n">
+        <f aca="false">K9*B4</f>
+        <v>1596.793</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>0.160046479454382</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10" t="n">
+        <f aca="false">N9*B4</f>
+        <v>435.489</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="10" t="n">
+        <f aca="false">SUM(B11+D10)</f>
+        <v>290.326</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="10" t="n">
+        <f aca="false">SUM(E11+G10)</f>
+        <v>290.326</v>
+      </c>
+      <c r="H11" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="10" t="n">
+        <f aca="false">SUM(H11+J10)</f>
+        <v>340.326</v>
+      </c>
+      <c r="K11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="10" t="n">
+        <f aca="false">SUM(K11+M10)</f>
+        <v>1596.793</v>
+      </c>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="10" t="n">
+        <f aca="false">SUM(N11+P10)</f>
+        <v>435.489</v>
+      </c>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="16" t="n">
+        <f aca="false">D12/B4</f>
+        <v>0.101392916927867</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="10" t="n">
+        <f aca="false">SUM(D14:D1048576)</f>
+        <v>294.37</v>
+      </c>
+      <c r="E12" s="16" t="n">
+        <f aca="false">G12/B4</f>
+        <v>0.10160991437212</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="11" t="n">
+        <f aca="false">SUM(G14:G1048576)</f>
+        <v>295</v>
+      </c>
+      <c r="H12" s="16" t="n">
+        <f aca="false">J12/B4</f>
+        <v>0.117109731818714</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="10" t="n">
+        <f aca="false">SUM(J14:J1048576)</f>
+        <v>340</v>
+      </c>
+      <c r="K12" s="16" t="n">
+        <f aca="false">M12/B4</f>
+        <v>0.549726858772552</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="10" t="n">
+        <f aca="false">SUM(M14:M1048576)</f>
+        <v>1596</v>
+      </c>
+      <c r="N12" s="16" t="n">
+        <f aca="false">P12/B4</f>
+        <v>0.151209330201222</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="10" t="n">
+        <f aca="false">SUM(P14:P1048576)</f>
+        <v>439</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="10" t="n">
+        <f aca="false">SUM(V14:V1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17" t="n">
+        <f aca="false">D12-D11</f>
+        <v>4.04399999999993</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="17" t="n">
+        <f aca="false">G12-G11</f>
+        <v>4.67399999999998</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17" t="n">
+        <f aca="false">J12-J11</f>
+        <v>-0.326000000000022</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="17" t="n">
+        <f aca="false">M12-M11</f>
+        <v>-0.792999999999893</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="17" t="n">
+        <f aca="false">P12-P11</f>
+        <v>3.51099999999997</v>
+      </c>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="20" t="n">
+        <v>17</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="20"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="n">
+        <v>283.09</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="21" t="n">
+        <v>250</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20" t="n">
+        <v>50</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="20"/>
+      <c r="N15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="31" t="n">
-        <f aca="false">Januar!P14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
+      <c r="P15" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="20"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="20" t="n">
+        <v>400</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="31" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
+      <c r="O16" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="31" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
+      <c r="P16" s="2" t="n">
+        <v>309</v>
+      </c>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>750</v>
+      </c>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="31" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="s">
+      <c r="J22" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="31" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="s">
+      <c r="M22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" s="28"/>
+      <c r="M23" s="2" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K25" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="31" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
+      <c r="L25" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="31" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
+      <c r="M25" s="2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <f aca="false">-P17</f>
+        <v>-100</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>-155</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="L28" s="19"/>
+      <c r="M28" s="21" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="2" t="n">
+        <v>-45</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="32" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
+      <c r="M29" s="2" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K30" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="32" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
+      <c r="L30" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="31" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="s">
+      <c r="M30" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K31" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B16" s="31" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="L31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K32" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="21" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="21"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:O12"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -4409,127 +6100,831 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="21" style="1" width="11.42"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="31" t="n">
-        <f aca="false">SUM(B3:B15)</f>
-        <v>5994</v>
-      </c>
-      <c r="C1" s="31" t="n">
-        <f aca="false">SUM(B3:B4)</f>
-        <v>6422</v>
-      </c>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28"/>
-      <c r="B2" s="31"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="31" t="n">
-        <v>6320</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="31" t="n">
-        <f aca="false">Januar!M21</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="31" t="n">
-        <f aca="false">Februar!M21</f>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2903.26</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <f aca="false">SUM(S14:S1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <f aca="false">SUM(B2:B3)</f>
+        <v>2903.26</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="n">
+        <f aca="false">B2*B9</f>
+        <v>290.326</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11" t="n">
+        <f aca="false">B2*E9</f>
+        <v>290.326</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10" t="n">
+        <f aca="false">H9*B2</f>
+        <v>290.326</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10" t="n">
+        <f aca="false">K9*B2</f>
+        <v>1596.793</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="10" t="n">
+        <f aca="false">B2*N9</f>
+        <v>435.489</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" s="9"/>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="n">
+        <f aca="false">B9*B4</f>
+        <v>290.326</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="11" t="n">
+        <f aca="false">E9*B4</f>
+        <v>290.326</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10" t="n">
+        <f aca="false">B4*H9</f>
+        <v>290.326</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0.586837091332735</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10" t="n">
+        <f aca="false">K9*B4</f>
+        <v>1596.793</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>0.160046479454382</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10" t="n">
+        <f aca="false">N9*B4</f>
+        <v>435.489</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="10" t="n">
+        <f aca="false">SUM(B11+D10)</f>
+        <v>290.326</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="10" t="n">
+        <f aca="false">SUM(E11+G10)</f>
+        <v>290.326</v>
+      </c>
+      <c r="H11" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="10" t="n">
+        <f aca="false">SUM(H11+J10)</f>
+        <v>340.326</v>
+      </c>
+      <c r="K11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="10" t="n">
+        <f aca="false">SUM(K11+M10)</f>
+        <v>1596.793</v>
+      </c>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="10" t="n">
+        <f aca="false">SUM(N11+P10)</f>
+        <v>435.489</v>
+      </c>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="31" t="n">
-        <f aca="false">Maerz!M28</f>
-        <v>-445</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="31"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="31"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="31"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="31"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="31"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="31"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" s="31"/>
+      <c r="B12" s="16" t="n">
+        <f aca="false">D12/B4</f>
+        <v>0.101392916927867</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="10" t="n">
+        <f aca="false">SUM(D14:D1048576)</f>
+        <v>294.37</v>
+      </c>
+      <c r="E12" s="16" t="n">
+        <f aca="false">G12/B4</f>
+        <v>0.0861100969255251</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="11" t="n">
+        <f aca="false">SUM(G14:G1048576)</f>
+        <v>250</v>
+      </c>
+      <c r="H12" s="16" t="n">
+        <f aca="false">J12/B4</f>
+        <v>0.105054318249141</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="10" t="n">
+        <f aca="false">SUM(J14:J1048576)</f>
+        <v>305</v>
+      </c>
+      <c r="K12" s="16" t="n">
+        <f aca="false">M12/B4</f>
+        <v>0.515282820002342</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="10" t="n">
+        <f aca="false">SUM(M14:M1048576)</f>
+        <v>1496</v>
+      </c>
+      <c r="N12" s="16" t="n">
+        <f aca="false">P12/B4</f>
+        <v>0.123654099185054</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="10" t="n">
+        <f aca="false">SUM(P14:P1048576)</f>
+        <v>359</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="10" t="n">
+        <f aca="false">SUM(V14:V1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17" t="n">
+        <f aca="false">D12-D11</f>
+        <v>4.04399999999993</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="17" t="n">
+        <f aca="false">G12-G11</f>
+        <v>-40.326</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17" t="n">
+        <f aca="false">J12-J11</f>
+        <v>-35.326</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="17" t="n">
+        <f aca="false">M12-M11</f>
+        <v>-100.793</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="17" t="n">
+        <f aca="false">P12-P11</f>
+        <v>-76.489</v>
+      </c>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="20" t="n">
+        <v>17</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="31"/>
+      <c r="B15" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="n">
+        <v>283.09</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="21" t="n">
+        <v>250</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20" t="n">
+        <v>50</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="20"/>
+      <c r="N15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="20"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="20" t="n">
+        <v>400</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>750</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="M22" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K25" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="K27" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="21"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="21"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="21"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:O12"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -4539,171 +6934,143 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A2:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="28" width="11.52"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>151</v>
-      </c>
-    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="n">
-        <v>44392</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>142</v>
+      <c r="A2" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="32" t="e">
+        <f aca="false">SUM(B4:B16)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="n">
-        <v>44410</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>142</v>
-      </c>
+      <c r="B3" s="32"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="n">
-        <v>44411</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>142</v>
+      <c r="A4" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="32" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="32" t="n">
+        <f aca="false">Januar!P14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>156</v>
+        <v>162</v>
+      </c>
+      <c r="B6" s="32" t="n">
+        <f aca="false">Februar!P14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="32" t="n">
+        <f aca="false">Maerz!P14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="n">
-        <v>44440</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>144</v>
+      <c r="A8" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="32" t="n">
+        <f aca="false">April!P14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="32" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="n">
-        <v>44516</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>146</v>
+      <c r="A10" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="32" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="n">
-        <v>44523</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>146</v>
+      <c r="A11" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="32" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="n">
-        <v>44549</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>147</v>
+      <c r="A12" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="32" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="n">
-        <v>44536</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>147</v>
+      <c r="A13" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="33" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="33" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="n">
-        <v>44630</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>158</v>
+      <c r="A15" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="32" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="n">
-        <v>44641</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>158</v>
+      <c r="A16" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="32" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -4722,146 +7089,122 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:H25"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="32" t="n">
+        <f aca="false">SUM(B3:B15)</f>
+        <v>5894</v>
+      </c>
+      <c r="C1" s="32" t="n">
+        <f aca="false">SUM(B3:B4)</f>
+        <v>6422</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="35" t="n">
-        <f aca="false">SUM(B5:B97)</f>
-        <v>6000</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="35" t="n">
-        <f aca="false">SUM(E5:E97)</f>
-        <v>18000</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="36" t="n">
-        <f aca="false">E2-B2</f>
-        <v>12000</v>
+      <c r="A2" s="28"/>
+      <c r="B2" s="32"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="32" t="n">
+        <v>6320</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="37" t="n">
-        <v>44362</v>
+      <c r="B4" s="32" t="n">
+        <f aca="false">Januar!M21</f>
+        <v>102</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="35" t="n">
-        <v>8000</v>
+      <c r="B5" s="32" t="n">
+        <f aca="false">Februar!M21</f>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="35" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="35" t="n">
-        <v>500</v>
+        <v>163</v>
+      </c>
+      <c r="B6" s="32" t="n">
+        <f aca="false">Maerz!M28</f>
+        <v>-445</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="32" t="n">
+        <f aca="false">April!M32</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="32"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="35" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="28" t="s">
+      <c r="B9" s="32"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="35" t="n">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30"/>
-      <c r="D8" s="28" t="s">
+      <c r="B10" s="32"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28"/>
-      <c r="B9" s="35"/>
-      <c r="D9" s="28" t="s">
+      <c r="B11" s="32"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="35"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="28" t="s">
+      <c r="B12" s="32"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="E10" s="35"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30"/>
-      <c r="B11" s="35"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28"/>
-      <c r="B12" s="35"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28"/>
-      <c r="B18" s="35"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28"/>
-      <c r="B19" s="35"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="30"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28"/>
-      <c r="B22" s="35"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28"/>
-      <c r="B25" s="35"/>
+      <c r="B13" s="32"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="32"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="32"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4879,682 +7222,171 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="38" width="11.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="35" t="n">
+        <v>44392</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="n">
+        <v>44410</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="35" t="n">
+        <v>44411</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="35" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="35" t="n">
+        <v>44516</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="38" t="n">
-        <f aca="false">SUM(C3:C1501)</f>
-        <v>116363.75</v>
-      </c>
-      <c r="E1" s="30" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="35" t="n">
+        <v>44523</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="38" t="n">
-        <f aca="false">SUM(F3:F1501)</f>
-        <v>15473.91</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="38" t="n">
-        <f aca="false">SUM(I3:I1501)</f>
-        <v>9684.75</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="L1" s="38" t="n">
-        <f aca="false">SUM(L3:L1501)</f>
-        <v>10440</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="L2" s="38"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="n">
-        <v>44012</v>
-      </c>
-      <c r="B3" s="28" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="35" t="n">
+        <v>44549</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="38" t="n">
-        <v>145.88</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="38"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="n">
-        <v>44012</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="38" t="n">
-        <v>3158.55</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="38"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="n">
-        <v>44017</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="38" t="n">
-        <v>2923.52</v>
-      </c>
-      <c r="D5" s="34" t="n">
-        <v>44017</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="38" t="n">
-        <v>2923.52</v>
-      </c>
-      <c r="G5" s="34" t="n">
-        <v>44034</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="I5" s="38" t="n">
-        <v>8000</v>
-      </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="38"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="n">
-        <v>44034</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="38" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D6" s="34" t="n">
-        <v>44080</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="38" t="n">
-        <v>1516</v>
-      </c>
-      <c r="G6" s="34" t="n">
-        <v>44116</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="I6" s="38" t="n">
-        <v>1665.25</v>
-      </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="38"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="n">
-        <v>44061</v>
-      </c>
-      <c r="B7" s="28" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="35" t="n">
+        <v>44536</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="38" t="n">
-        <v>414.99</v>
-      </c>
-      <c r="D7" s="34" t="n">
-        <v>44080</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="38" t="n">
-        <v>1856</v>
-      </c>
-      <c r="G7" s="34" t="n">
-        <v>44116</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="I7" s="38" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="38"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="n">
-        <v>44078</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="38" t="n">
-        <v>10440</v>
-      </c>
-      <c r="D8" s="34" t="n">
-        <v>44094</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="F8" s="38" t="n">
-        <v>1850.2</v>
-      </c>
-      <c r="J8" s="34" t="n">
-        <v>44078</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="L8" s="38" t="n">
-        <v>10440</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="n">
-        <v>44080</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="38" t="n">
-        <v>1516</v>
-      </c>
-      <c r="D9" s="34" t="n">
-        <v>44106</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="38" t="n">
-        <v>807.73</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="38"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="n">
-        <v>44080</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="38" t="n">
-        <v>1856</v>
-      </c>
-      <c r="D10" s="34" t="n">
-        <v>44140</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="F10" s="38" t="n">
-        <v>538.12</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="38"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="n">
-        <v>44094</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="38" t="n">
-        <v>1850.2</v>
-      </c>
-      <c r="D11" s="34" t="n">
-        <v>44140</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" s="38" t="n">
-        <v>1305.64</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="38"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="n">
-        <v>44103</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="38" t="n">
-        <v>3780.44</v>
-      </c>
-      <c r="D12" s="34" t="n">
-        <v>44606</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="F12" s="38" t="n">
-        <v>4676.7</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="38"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="n">
-        <v>44106</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="38" t="n">
-        <v>807.73</v>
-      </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="38"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34" t="n">
-        <v>44111</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="38" t="n">
-        <v>335.41</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="38"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="n">
-        <v>44116</v>
+      <c r="A15" s="35" t="n">
+        <v>44630</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="38" t="n">
-        <v>1665.25</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="38"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="38"/>
+        <v>179</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="n">
-        <v>44116</v>
+      <c r="A16" s="35" t="n">
+        <v>44641</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="38" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="38"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="38"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="n">
-        <v>44117</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" s="38" t="n">
-        <v>190</v>
-      </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="38"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="n">
-        <v>44128</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="38" t="n">
-        <v>233.68</v>
-      </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="38"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34" t="n">
-        <v>44139</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="38" t="n">
-        <v>10080.37</v>
-      </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="38"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="n">
-        <v>44140</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="38" t="n">
-        <v>538.12</v>
-      </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="38"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="n">
-        <v>44140</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="38" t="n">
-        <v>1305.64</v>
-      </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="38"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="n">
-        <v>44167</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="38" t="n">
-        <v>6059.92</v>
-      </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="38"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="n">
-        <v>44169</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" s="38" t="n">
-        <v>242.88</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34" t="n">
-        <v>44175</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="38" t="n">
-        <v>429.26</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34" t="n">
-        <v>44180</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="38" t="n">
-        <v>2282.23</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34" t="n">
-        <v>44180</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="38" t="n">
-        <v>1608.51</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34" t="n">
-        <v>44246</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="38" t="n">
-        <v>3748.86</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="34" t="n">
-        <v>44273</v>
-      </c>
-      <c r="B28" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C28" s="38" t="n">
-        <v>6779.29</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34" t="n">
-        <v>44277</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="38" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="34" t="n">
-        <v>44278</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" s="38" t="n">
-        <v>14875</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="34" t="n">
-        <v>44278</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C31" s="38" t="n">
-        <v>1083.95</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="34" t="n">
-        <v>44292</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C32" s="38" t="n">
-        <v>1892.6</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="34" t="n">
-        <v>44328</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="38" t="n">
-        <v>4250.68</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="34" t="n">
-        <v>44328</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="38" t="n">
-        <v>8496.11</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="34" t="n">
-        <v>44342</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" s="38" t="n">
-        <v>316.78</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="34" t="n">
-        <v>44342</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C36" s="38" t="n">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="34" t="n">
-        <v>44342</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C37" s="38" t="n">
-        <v>8449</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="34" t="n">
-        <v>44383</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="38" t="n">
-        <v>2999.01</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="34" t="n">
-        <v>44397</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C39" s="38" t="n">
-        <v>758.39</v>
+      <c r="C16" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -5573,100 +7405,146 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:C18"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="13.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="28" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="18.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="n">
-        <v>43854</v>
-      </c>
-      <c r="B3" s="39" t="n">
-        <v>1400</v>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="36" t="n">
+        <f aca="false">SUM(B5:B97)</f>
+        <v>2500</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="36" t="n">
+        <f aca="false">SUM(E5:E97)</f>
+        <v>20000</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="37" t="n">
+        <f aca="false">E2-B2</f>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="38" t="n">
+        <v>44683</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="36" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="40" t="n">
-        <v>12</v>
-      </c>
-      <c r="C6" s="40" t="n">
-        <v>45</v>
+        <v>189</v>
+      </c>
+      <c r="B6" s="36" t="n">
+        <v>500</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="36" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="A7" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="36" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="36" t="n">
+        <v>9500</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="31"/>
+      <c r="D8" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="36"/>
+      <c r="D9" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40" t="n">
-        <v>3250</v>
-      </c>
+      <c r="D10" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="36"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="40" t="n">
-        <v>1700</v>
-      </c>
-      <c r="C12" s="40"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="40" t="n">
-        <v>150</v>
-      </c>
-      <c r="C13" s="40"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="40" t="n">
-        <v>1100</v>
-      </c>
-      <c r="C14" s="40"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="40" t="n">
-        <v>1300</v>
-      </c>
-      <c r="C15" s="40"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="36"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="41" t="n">
-        <f aca="false">SUM(B12:B15)</f>
-        <v>4250</v>
-      </c>
+      <c r="A18" s="28"/>
+      <c r="B18" s="36"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="28"/>
+      <c r="B19" s="36"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="31"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="28"/>
+      <c r="B22" s="36"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="31"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="28"/>
+      <c r="B25" s="36"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Ausgaben2022.xlsx
+++ b/Ausgaben2022.xlsx
@@ -5,19 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Januar" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Februar" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Maerz" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="RücklageFun" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="TagesgeldPlus_Ruecklage" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Putzen" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Hausausgaben_Rest" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Rechnungen Haus" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Nicolai" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Geplante Hausausgaben" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="April" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Mai" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="RücklageFun" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="TagesgeldPlus_Ruecklage" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Putzen" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Hausausgaben_Rest" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Rechnungen Haus" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Nicolai" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Geplante Hausausgaben" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="226">
   <si>
     <t xml:space="preserve">Gehalt</t>
   </si>
@@ -406,6 +408,9 @@
     <t xml:space="preserve">Takko</t>
   </si>
   <si>
+    <t xml:space="preserve">KW15</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baerbel</t>
   </si>
   <si>
@@ -434,6 +439,75 @@
   </si>
   <si>
     <t xml:space="preserve">Böttcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Höffner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial c++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">365Rider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shimano Mtb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolumbien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medpex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bepanthen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boxen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trinkgeld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zahnbürste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venilkerne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">applied c++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine Kinder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Befestigung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonhoefer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schrauben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glashater</t>
   </si>
   <si>
     <t xml:space="preserve">Summe</t>
@@ -650,8 +724,8 @@
     <numFmt numFmtId="169" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
     <numFmt numFmtId="170" formatCode="0.00\ %"/>
     <numFmt numFmtId="171" formatCode="#,##0.00&quot; €&quot;;[RED]\-#,##0.00&quot; €&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0\ [$€-407];\-#,##0\ [$€-407]"/>
-    <numFmt numFmtId="173" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="172" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="173" formatCode="#,##0\ [$€-407];\-#,##0\ [$€-407]"/>
     <numFmt numFmtId="174" formatCode="#,##0&quot; €&quot;;\-#,##0&quot; €&quot;"/>
     <numFmt numFmtId="175" formatCode="#,##0.00&quot; €&quot;;\-#,##0.00&quot; €&quot;"/>
   </numFmts>
@@ -766,7 +840,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -887,15 +961,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -903,7 +981,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -915,7 +993,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2014,17 +2092,822 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="11.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="39" t="n">
+        <f aca="false">SUM(C3:C1501)</f>
+        <v>116363.75</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="39" t="n">
+        <f aca="false">SUM(F3:F1501)</f>
+        <v>15473.91</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" s="39" t="n">
+        <f aca="false">SUM(I3:I1501)</f>
+        <v>9684.75</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="39" t="n">
+        <f aca="false">SUM(L3:L1501)</f>
+        <v>10440</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="L2" s="39"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="39" t="n">
+        <v>145.88</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="39"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="35" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="39" t="n">
+        <v>3158.55</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="39"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="35" t="n">
+        <v>44017</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="39" t="n">
+        <v>2923.52</v>
+      </c>
+      <c r="D5" s="35" t="n">
+        <v>44017</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="39" t="n">
+        <v>2923.52</v>
+      </c>
+      <c r="G5" s="35" t="n">
+        <v>44034</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5" s="39" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J5" s="35"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="39"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="35" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="39" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D6" s="35" t="n">
+        <v>44080</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="39" t="n">
+        <v>1516</v>
+      </c>
+      <c r="G6" s="35" t="n">
+        <v>44116</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" s="39" t="n">
+        <v>1665.25</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="39"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="35" t="n">
+        <v>44061</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="39" t="n">
+        <v>414.99</v>
+      </c>
+      <c r="D7" s="35" t="n">
+        <v>44080</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="39" t="n">
+        <v>1856</v>
+      </c>
+      <c r="G7" s="35" t="n">
+        <v>44116</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="I7" s="39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="39"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="35" t="n">
+        <v>44078</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="39" t="n">
+        <v>10440</v>
+      </c>
+      <c r="D8" s="35" t="n">
+        <v>44094</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="39" t="n">
+        <v>1850.2</v>
+      </c>
+      <c r="J8" s="35" t="n">
+        <v>44078</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="L8" s="39" t="n">
+        <v>10440</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="35" t="n">
+        <v>44080</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="39" t="n">
+        <v>1516</v>
+      </c>
+      <c r="D9" s="35" t="n">
+        <v>44106</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="39" t="n">
+        <v>807.73</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="39"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="35" t="n">
+        <v>44080</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="39" t="n">
+        <v>1856</v>
+      </c>
+      <c r="D10" s="35" t="n">
+        <v>44140</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="39" t="n">
+        <v>538.12</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="39"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="35" t="n">
+        <v>44094</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="39" t="n">
+        <v>1850.2</v>
+      </c>
+      <c r="D11" s="35" t="n">
+        <v>44140</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="39" t="n">
+        <v>1305.64</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="39"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="35" t="n">
+        <v>44103</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="39" t="n">
+        <v>3780.44</v>
+      </c>
+      <c r="D12" s="35" t="n">
+        <v>44606</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="39" t="n">
+        <v>4676.7</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="35" t="n">
+        <v>44106</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="39" t="n">
+        <v>807.73</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="35" t="n">
+        <v>44111</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="39" t="n">
+        <v>335.41</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="39"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="35" t="n">
+        <v>44116</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="39" t="n">
+        <v>1665.25</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="39"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="39"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="35" t="n">
+        <v>44116</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="39"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="39"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="35" t="n">
+        <v>44117</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="39" t="n">
+        <v>190</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="35" t="n">
+        <v>44128</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="39" t="n">
+        <v>233.68</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="39"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="35" t="n">
+        <v>44139</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="39" t="n">
+        <v>10080.37</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="39"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="35" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="39" t="n">
+        <v>538.12</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="39"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="35" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="39" t="n">
+        <v>1305.64</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="39"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="35" t="n">
+        <v>44167</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="39" t="n">
+        <v>6059.92</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="39"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="35" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="39" t="n">
+        <v>242.88</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="35" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="39" t="n">
+        <v>429.26</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="35" t="n">
+        <v>44180</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="39" t="n">
+        <v>2282.23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="35" t="n">
+        <v>44180</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="39" t="n">
+        <v>1608.51</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="35" t="n">
+        <v>44246</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="39" t="n">
+        <v>3748.86</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="35" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="39" t="n">
+        <v>6779.29</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="35" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="39" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="35" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="39" t="n">
+        <v>14875</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="35" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="39" t="n">
+        <v>1083.95</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="35" t="n">
+        <v>44292</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="39" t="n">
+        <v>1892.6</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="35" t="n">
+        <v>44328</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="39" t="n">
+        <v>4250.68</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="35" t="n">
+        <v>44328</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="39" t="n">
+        <v>8496.11</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="35" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="39" t="n">
+        <v>316.78</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="35" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="39" t="n">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="35" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="39" t="n">
+        <v>8449</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="35" t="n">
+        <v>44383</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" s="39" t="n">
+        <v>2999.01</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="35" t="n">
+        <v>44397</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="39" t="n">
+        <v>758.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A3:C18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="28" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="n">
+        <v>43854</v>
+      </c>
+      <c r="B3" s="40" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="41" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="41" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41" t="n">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="41" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C12" s="41"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="41" t="n">
+        <v>150</v>
+      </c>
+      <c r="C13" s="41"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="41" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C14" s="41"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="41" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C15" s="41"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="42" t="n">
+        <f aca="false">SUM(B12:B15)</f>
+        <v>4250</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="23.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="23.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="38" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="38" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="39" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="39" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2033,15 +2916,15 @@
       <c r="K1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="42" t="n">
+      <c r="A2" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="43" t="n">
         <f aca="false">SUM(D2:D999)</f>
         <v>90526.02</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="E2" s="42" t="n">
+      <c r="E2" s="43" t="n">
         <f aca="false">SUM(E5:E47)</f>
         <v>21341.06</v>
       </c>
@@ -2053,317 +2936,317 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>176</v>
+      <c r="A4" s="31" t="s">
+        <v>200</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="J4" s="30"/>
+        <v>159</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="28"/>
-      <c r="M4" s="30"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="38" t="n">
+        <v>210</v>
+      </c>
+      <c r="B5" s="39" t="n">
         <v>4756.87</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="38" t="n">
+        <v>211</v>
+      </c>
+      <c r="B6" s="39" t="n">
         <v>1146.3</v>
       </c>
-      <c r="C6" s="38" t="n">
+      <c r="C6" s="39" t="n">
         <f aca="false">SUM(B5,B6)</f>
         <v>5903.17</v>
       </c>
-      <c r="E6" s="38" t="n">
+      <c r="E6" s="39" t="n">
         <v>1146.3</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
+      <c r="L6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="38" t="n">
+        <v>187</v>
+      </c>
+      <c r="B7" s="39" t="n">
         <v>2371.91</v>
       </c>
-      <c r="C7" s="38" t="n">
+      <c r="C7" s="39" t="n">
         <f aca="false">SUM(C6,B7)</f>
         <v>8275.08</v>
       </c>
-      <c r="E7" s="38" t="n">
+      <c r="E7" s="39" t="n">
         <v>2371.91</v>
       </c>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="38" t="n">
+        <v>212</v>
+      </c>
+      <c r="B8" s="39" t="n">
         <v>2186.62</v>
       </c>
-      <c r="C8" s="38" t="n">
+      <c r="C8" s="39" t="n">
         <f aca="false">SUM(C7,B8)</f>
         <v>10461.7</v>
       </c>
-      <c r="E8" s="38" t="n">
+      <c r="E8" s="39" t="n">
         <v>2186.62</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="38" t="n">
+        <v>189</v>
+      </c>
+      <c r="B9" s="39" t="n">
         <v>3114.23</v>
       </c>
-      <c r="C9" s="38" t="n">
+      <c r="C9" s="39" t="n">
         <f aca="false">SUM(C8,B9)</f>
         <v>13575.93</v>
       </c>
-      <c r="E9" s="38" t="n">
+      <c r="E9" s="39" t="n">
         <v>3114.23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" s="38" t="n">
+        <v>213</v>
+      </c>
+      <c r="B10" s="39" t="n">
         <v>12270.95</v>
       </c>
-      <c r="C10" s="38" t="n">
+      <c r="C10" s="39" t="n">
         <f aca="false">SUM(C9,B10)</f>
         <v>25846.88</v>
       </c>
-      <c r="D10" s="42" t="n">
+      <c r="D10" s="43" t="n">
         <f aca="false">C10</f>
         <v>25846.88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="30"/>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30" t="s">
-        <v>174</v>
+      <c r="A12" s="31" t="s">
+        <v>198</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="30"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="38" t="n">
+        <v>214</v>
+      </c>
+      <c r="B13" s="39" t="n">
         <v>5000</v>
       </c>
-      <c r="C13" s="38" t="n">
+      <c r="C13" s="39" t="n">
         <f aca="false">B13</f>
         <v>5000</v>
       </c>
-      <c r="D13" s="42" t="n">
+      <c r="D13" s="43" t="n">
         <f aca="false">C13</f>
         <v>5000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="28"/>
-      <c r="D14" s="30"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30" t="s">
-        <v>180</v>
+      <c r="A15" s="31" t="s">
+        <v>204</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
-      <c r="D15" s="30"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" s="38" t="n">
+        <v>215</v>
+      </c>
+      <c r="B16" s="39" t="n">
         <v>13634.43</v>
       </c>
-      <c r="C16" s="38" t="n">
+      <c r="C16" s="39" t="n">
         <f aca="false">B16</f>
         <v>13634.43</v>
       </c>
-      <c r="D16" s="42" t="n">
+      <c r="D16" s="43" t="n">
         <f aca="false">C16</f>
         <v>13634.43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="30"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="s">
-        <v>192</v>
+      <c r="A18" s="31" t="s">
+        <v>216</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="30"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="38" t="n">
+        <v>217</v>
+      </c>
+      <c r="B19" s="39" t="n">
         <v>10000</v>
       </c>
-      <c r="C19" s="38" t="n">
+      <c r="C19" s="39" t="n">
         <f aca="false">B19</f>
         <v>10000</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="38" t="n">
+      <c r="D19" s="31"/>
+      <c r="E19" s="39" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="B20" s="38" t="n">
+        <v>218</v>
+      </c>
+      <c r="B20" s="39" t="n">
         <v>15000</v>
       </c>
-      <c r="C20" s="38" t="n">
+      <c r="C20" s="39" t="n">
         <f aca="false">SUM(B19,B20)</f>
         <v>25000</v>
       </c>
-      <c r="D20" s="42" t="n">
+      <c r="D20" s="43" t="n">
         <f aca="false">C20</f>
         <v>25000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="30"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30" t="s">
-        <v>195</v>
+      <c r="A22" s="31" t="s">
+        <v>219</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="B23" s="38" t="n">
+        <v>220</v>
+      </c>
+      <c r="B23" s="39" t="n">
         <v>4433.44</v>
       </c>
-      <c r="C23" s="38" t="n">
+      <c r="C23" s="39" t="n">
         <f aca="false">B23</f>
         <v>4433.44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="B24" s="38" t="n">
+        <v>221</v>
+      </c>
+      <c r="B24" s="39" t="n">
         <v>4633.27</v>
       </c>
-      <c r="C24" s="38" t="n">
+      <c r="C24" s="39" t="n">
         <f aca="false">SUM(B23,B24)</f>
         <v>9066.71</v>
       </c>
-      <c r="D24" s="42" t="n">
+      <c r="D24" s="43" t="n">
         <f aca="false">C24</f>
         <v>9066.71</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="30" t="s">
-        <v>198</v>
+      <c r="A26" s="31" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="B27" s="38" t="n">
+        <v>213</v>
+      </c>
+      <c r="B27" s="39" t="n">
         <v>2376</v>
       </c>
-      <c r="C27" s="38" t="n">
+      <c r="C27" s="39" t="n">
         <f aca="false">B27</f>
         <v>2376</v>
       </c>
-      <c r="D27" s="42" t="n">
+      <c r="D27" s="43" t="n">
         <f aca="false">C27</f>
         <v>2376</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="30" t="s">
-        <v>199</v>
+      <c r="A29" s="31" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="B30" s="38" t="n">
+        <v>224</v>
+      </c>
+      <c r="B30" s="39" t="n">
         <v>7080</v>
       </c>
-      <c r="C30" s="38" t="n">
+      <c r="C30" s="39" t="n">
         <f aca="false">B30</f>
         <v>7080</v>
       </c>
-      <c r="D30" s="42" t="n">
+      <c r="D30" s="43" t="n">
         <f aca="false">C30</f>
         <v>7080</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30" t="s">
-        <v>201</v>
+      <c r="A32" s="31" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="B33" s="38" t="n">
+        <v>224</v>
+      </c>
+      <c r="B33" s="39" t="n">
         <v>2522</v>
       </c>
-      <c r="C33" s="38" t="n">
+      <c r="C33" s="39" t="n">
         <f aca="false">B33</f>
         <v>2522</v>
       </c>
-      <c r="D33" s="42" t="n">
+      <c r="D33" s="43" t="n">
         <f aca="false">C33</f>
         <v>2522</v>
       </c>
-      <c r="E33" s="38" t="n">
+      <c r="E33" s="39" t="n">
         <v>2522</v>
       </c>
     </row>
@@ -2773,7 +3656,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="17" t="n">
         <f aca="false">M12-M11</f>
-        <v>-30.55</v>
+        <v>-30.5500000000002</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="18"/>
@@ -3345,8 +4228,8 @@
   </sheetPr>
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L32" activeCellId="0" sqref="L32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3681,12 +4564,12 @@
       </c>
       <c r="K12" s="16" t="n">
         <f aca="false">M12/B4</f>
-        <v>0.514283942878006</v>
+        <v>0.561472275993194</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="10" t="n">
         <f aca="false">SUM(M14:M1048576)</f>
-        <v>1493.1</v>
+        <v>1630.1</v>
       </c>
       <c r="N12" s="16" t="n">
         <f aca="false">P12/B4</f>
@@ -3733,13 +4616,13 @@
       <c r="L13" s="18"/>
       <c r="M13" s="17" t="n">
         <f aca="false">M12-M11</f>
-        <v>-133.693</v>
+        <v>3.30699999999956</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="18"/>
       <c r="P13" s="17" t="n">
         <f aca="false">P12-P11</f>
-        <v>-9.48899999999998</v>
+        <v>-9.48900000000003</v>
       </c>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
@@ -4092,6 +4975,12 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="30" t="n">
+        <v>44659</v>
+      </c>
       <c r="H25" s="1" t="s">
         <v>78</v>
       </c>
@@ -4102,7 +4991,7 @@
         <v>25</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>104</v>
@@ -4122,10 +5011,10 @@
         <v>25</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M26" s="2" t="n">
         <v>23</v>
@@ -4133,7 +5022,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H27" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I27" s="28"/>
       <c r="J27" s="2" t="n">
@@ -4141,10 +5030,10 @@
         <v>-70</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M27" s="2" t="n">
         <v>11</v>
@@ -4155,7 +5044,7 @@
         <v>45</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J28" s="2" t="n">
         <v>25</v>
@@ -4178,10 +5067,10 @@
         <v>50</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M29" s="2" t="n">
         <v>150</v>
@@ -4195,10 +5084,10 @@
         <v>-50</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M30" s="2" t="n">
         <v>46</v>
@@ -4214,11 +5103,19 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K32" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L32" s="28"/>
       <c r="M32" s="2" t="n">
         <v>83.1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4281,152 +5178,919 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B16"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="28" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="21" style="1" width="11.42"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="2"/>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="31" t="e">
-        <f aca="false">SUM(B4:B16)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="31"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="31" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2903.26</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <f aca="false">SUM(S14:S1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <f aca="false">SUM(B2:B3)</f>
+        <v>2903.26</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="n">
+        <f aca="false">B2*B9</f>
+        <v>290.326</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11" t="n">
+        <f aca="false">B2*E9</f>
+        <v>290.326</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10" t="n">
+        <f aca="false">H9*B2</f>
+        <v>290.326</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10" t="n">
+        <f aca="false">K9*B2</f>
+        <v>1596.793</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="10" t="n">
+        <f aca="false">B2*N9</f>
+        <v>435.489</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" s="9"/>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="n">
+        <f aca="false">B9*B4</f>
+        <v>290.326</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="11" t="n">
+        <f aca="false">E9*B4</f>
+        <v>290.326</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10" t="n">
+        <f aca="false">B4*H9</f>
+        <v>290.326</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0.586837091332735</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10" t="n">
+        <f aca="false">K9*B4</f>
+        <v>1596.793</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>0.160046479454382</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10" t="n">
+        <f aca="false">N9*B4</f>
+        <v>435.489</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="10" t="n">
+        <f aca="false">SUM(B11+D10)</f>
+        <v>290.326</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="10" t="n">
+        <f aca="false">SUM(E11+G10)</f>
+        <v>290.326</v>
+      </c>
+      <c r="H11" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="10" t="n">
+        <f aca="false">SUM(H11+J10)</f>
+        <v>340.326</v>
+      </c>
+      <c r="K11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="10" t="n">
+        <f aca="false">SUM(K11+M10)</f>
+        <v>1596.793</v>
+      </c>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="10" t="n">
+        <f aca="false">SUM(N11+P10)</f>
+        <v>435.489</v>
+      </c>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="16" t="n">
+        <f aca="false">D12/B4</f>
+        <v>0.101392916927867</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="10" t="n">
+        <f aca="false">SUM(D14:D1048576)</f>
+        <v>294.37</v>
+      </c>
+      <c r="E12" s="16" t="n">
+        <f aca="false">G12/B4</f>
+        <v>0.10160991437212</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="11" t="n">
+        <f aca="false">SUM(G14:G1048576)</f>
+        <v>295</v>
+      </c>
+      <c r="H12" s="16" t="n">
+        <f aca="false">J12/B4</f>
+        <v>0.117109731818714</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="10" t="n">
+        <f aca="false">SUM(J14:J1048576)</f>
+        <v>340</v>
+      </c>
+      <c r="K12" s="16" t="n">
+        <f aca="false">M12/B4</f>
+        <v>0.549726858772552</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="10" t="n">
+        <f aca="false">SUM(M14:M1048576)</f>
+        <v>1596</v>
+      </c>
+      <c r="N12" s="16" t="n">
+        <f aca="false">P12/B4</f>
+        <v>0.151209330201222</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="10" t="n">
+        <f aca="false">SUM(P14:P1048576)</f>
+        <v>439</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="10" t="n">
+        <f aca="false">SUM(V14:V1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17" t="n">
+        <f aca="false">D12-D11</f>
+        <v>4.04399999999993</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="17" t="n">
+        <f aca="false">G12-G11</f>
+        <v>4.67399999999998</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17" t="n">
+        <f aca="false">J12-J11</f>
+        <v>-0.326000000000022</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="17" t="n">
+        <f aca="false">M12-M11</f>
+        <v>-0.792999999999893</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="17" t="n">
+        <f aca="false">P12-P11</f>
+        <v>3.51099999999997</v>
+      </c>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="20" t="n">
+        <v>17</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="20"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="n">
+        <v>283.09</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="21" t="n">
+        <v>250</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20" t="n">
+        <v>50</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="20"/>
+      <c r="N15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="31" t="n">
-        <f aca="false">Januar!P14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
+      <c r="P15" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="20"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="20" t="n">
+        <v>400</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="31" t="n">
-        <f aca="false">Januar!P14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
+      <c r="O16" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="31" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
+      <c r="P16" s="2" t="n">
+        <v>309</v>
+      </c>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>750</v>
+      </c>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="31" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
+      <c r="J22" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="31" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="s">
+      <c r="M22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" s="28"/>
+      <c r="M23" s="2" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K25" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="31" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="s">
+      <c r="L25" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="31" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
+      <c r="M25" s="2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <f aca="false">-P17</f>
+        <v>-100</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>-155</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="L28" s="19"/>
+      <c r="M28" s="21" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="2" t="n">
+        <v>-45</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="31" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
+      <c r="M29" s="2" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K30" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="32" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
+      <c r="L30" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="32" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
+      <c r="M30" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K31" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="31" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="s">
+      <c r="L31" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="31" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="M31" s="2" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K32" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="21" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="21"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:O12"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -4436,127 +6100,831 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="21" style="1" width="11.42"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="31" t="n">
-        <f aca="false">SUM(B3:B15)</f>
-        <v>5994</v>
-      </c>
-      <c r="C1" s="31" t="n">
-        <f aca="false">SUM(B3:B4)</f>
-        <v>6422</v>
-      </c>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28"/>
-      <c r="B2" s="31"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="31" t="n">
-        <v>6320</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="31" t="n">
-        <f aca="false">Januar!M21</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="31" t="n">
-        <f aca="false">Februar!M21</f>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2903.26</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <f aca="false">SUM(S14:S1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <f aca="false">SUM(B2:B3)</f>
+        <v>2903.26</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="n">
+        <f aca="false">B2*B9</f>
+        <v>290.326</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11" t="n">
+        <f aca="false">B2*E9</f>
+        <v>290.326</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10" t="n">
+        <f aca="false">H9*B2</f>
+        <v>290.326</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10" t="n">
+        <f aca="false">K9*B2</f>
+        <v>1596.793</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="10" t="n">
+        <f aca="false">B2*N9</f>
+        <v>435.489</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" s="9"/>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="n">
+        <f aca="false">B9*B4</f>
+        <v>290.326</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="11" t="n">
+        <f aca="false">E9*B4</f>
+        <v>290.326</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10" t="n">
+        <f aca="false">B4*H9</f>
+        <v>290.326</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0.586837091332735</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10" t="n">
+        <f aca="false">K9*B4</f>
+        <v>1596.793</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>0.160046479454382</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10" t="n">
+        <f aca="false">N9*B4</f>
+        <v>435.489</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="10" t="n">
+        <f aca="false">SUM(B11+D10)</f>
+        <v>290.326</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="10" t="n">
+        <f aca="false">SUM(E11+G10)</f>
+        <v>290.326</v>
+      </c>
+      <c r="H11" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="10" t="n">
+        <f aca="false">SUM(H11+J10)</f>
+        <v>340.326</v>
+      </c>
+      <c r="K11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="10" t="n">
+        <f aca="false">SUM(K11+M10)</f>
+        <v>1596.793</v>
+      </c>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="10" t="n">
+        <f aca="false">SUM(N11+P10)</f>
+        <v>435.489</v>
+      </c>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="31" t="n">
-        <f aca="false">Maerz!M28</f>
-        <v>-445</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="31"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="31"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="31"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="31"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="31"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="31"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="31"/>
+      <c r="B12" s="16" t="n">
+        <f aca="false">D12/B4</f>
+        <v>0.101392916927867</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="10" t="n">
+        <f aca="false">SUM(D14:D1048576)</f>
+        <v>294.37</v>
+      </c>
+      <c r="E12" s="16" t="n">
+        <f aca="false">G12/B4</f>
+        <v>0.0861100969255251</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="11" t="n">
+        <f aca="false">SUM(G14:G1048576)</f>
+        <v>250</v>
+      </c>
+      <c r="H12" s="16" t="n">
+        <f aca="false">J12/B4</f>
+        <v>0.105054318249141</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="10" t="n">
+        <f aca="false">SUM(J14:J1048576)</f>
+        <v>305</v>
+      </c>
+      <c r="K12" s="16" t="n">
+        <f aca="false">M12/B4</f>
+        <v>0.515282820002342</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="10" t="n">
+        <f aca="false">SUM(M14:M1048576)</f>
+        <v>1496</v>
+      </c>
+      <c r="N12" s="16" t="n">
+        <f aca="false">P12/B4</f>
+        <v>0.123654099185054</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="10" t="n">
+        <f aca="false">SUM(P14:P1048576)</f>
+        <v>359</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="10" t="n">
+        <f aca="false">SUM(V14:V1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17" t="n">
+        <f aca="false">D12-D11</f>
+        <v>4.04399999999993</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="17" t="n">
+        <f aca="false">G12-G11</f>
+        <v>-40.326</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17" t="n">
+        <f aca="false">J12-J11</f>
+        <v>-35.326</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="17" t="n">
+        <f aca="false">M12-M11</f>
+        <v>-100.793</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="17" t="n">
+        <f aca="false">P12-P11</f>
+        <v>-76.489</v>
+      </c>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="20" t="n">
+        <v>17</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="31"/>
+      <c r="B15" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="n">
+        <v>283.09</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="21" t="n">
+        <v>250</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20" t="n">
+        <v>50</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="20"/>
+      <c r="N15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="20"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="20" t="n">
+        <v>400</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>750</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="M22" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K25" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="K27" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="21"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="21"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="21"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:O12"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -4566,171 +6934,143 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A2:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="28" width="11.52"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>152</v>
-      </c>
-    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="n">
-        <v>44392</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>143</v>
+      <c r="A2" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="32" t="e">
+        <f aca="false">SUM(B4:B16)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="n">
-        <v>44410</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>143</v>
-      </c>
+      <c r="B3" s="32"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="n">
-        <v>44411</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>143</v>
+      <c r="A4" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="32" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="32" t="n">
+        <f aca="false">Januar!P14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>157</v>
+        <v>162</v>
+      </c>
+      <c r="B6" s="32" t="n">
+        <f aca="false">Februar!P14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="32" t="n">
+        <f aca="false">Maerz!P14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="n">
-        <v>44440</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>145</v>
+      <c r="A8" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="32" t="n">
+        <f aca="false">April!P14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="32" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="n">
-        <v>44516</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>147</v>
+      <c r="A10" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="32" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="n">
-        <v>44523</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>147</v>
+      <c r="A11" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="32" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="n">
-        <v>44549</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>148</v>
+      <c r="A12" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="32" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="n">
-        <v>44536</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>148</v>
+      <c r="A13" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="33" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="33" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="n">
-        <v>44630</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>159</v>
+      <c r="A15" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="32" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="n">
-        <v>44641</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>159</v>
+      <c r="A16" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="32" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -4749,146 +7089,122 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:H25"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="32" t="n">
+        <f aca="false">SUM(B3:B15)</f>
+        <v>5894</v>
+      </c>
+      <c r="C1" s="32" t="n">
+        <f aca="false">SUM(B3:B4)</f>
+        <v>6422</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="35" t="n">
-        <f aca="false">SUM(B5:B97)</f>
-        <v>6000</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="35" t="n">
-        <f aca="false">SUM(E5:E97)</f>
-        <v>18000</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="36" t="n">
-        <f aca="false">E2-B2</f>
-        <v>12000</v>
+      <c r="A2" s="28"/>
+      <c r="B2" s="32"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="32" t="n">
+        <v>6320</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="37" t="n">
-        <v>44362</v>
+      <c r="B4" s="32" t="n">
+        <f aca="false">Januar!M21</f>
+        <v>102</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="35" t="n">
-        <v>8000</v>
+        <v>162</v>
+      </c>
+      <c r="B5" s="32" t="n">
+        <f aca="false">Februar!M21</f>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="35" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="35" t="n">
-        <v>500</v>
+        <v>163</v>
+      </c>
+      <c r="B6" s="32" t="n">
+        <f aca="false">Maerz!M28</f>
+        <v>-445</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="32" t="n">
+        <f aca="false">April!M32</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="32"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="32"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="35" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="28" t="s">
+      <c r="B10" s="32"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="35" t="n">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30"/>
-      <c r="D8" s="28" t="s">
+      <c r="B11" s="32"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28"/>
-      <c r="B9" s="35"/>
-      <c r="D9" s="28" t="s">
+      <c r="B12" s="32"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="35"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="28" t="s">
+      <c r="B13" s="32"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="35"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30"/>
-      <c r="B11" s="35"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28"/>
-      <c r="B12" s="35"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28"/>
-      <c r="B18" s="35"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28"/>
-      <c r="B19" s="35"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="30"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28"/>
-      <c r="B22" s="35"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28"/>
-      <c r="B25" s="35"/>
+      <c r="B14" s="32"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="32"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4906,682 +7222,171 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="38" width="11.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="35" t="n">
+        <v>44392</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="n">
+        <v>44410</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="35" t="n">
+        <v>44411</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="35" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="35" t="n">
+        <v>44516</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="35" t="n">
+        <v>44523</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="35" t="n">
+        <v>44549</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="38" t="n">
-        <f aca="false">SUM(C3:C1501)</f>
-        <v>116363.75</v>
-      </c>
-      <c r="E1" s="30" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="35" t="n">
+        <v>44536</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="38" t="n">
-        <f aca="false">SUM(F3:F1501)</f>
-        <v>15473.91</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1" s="38" t="n">
-        <f aca="false">SUM(I3:I1501)</f>
-        <v>9684.75</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="L1" s="38" t="n">
-        <f aca="false">SUM(L3:L1501)</f>
-        <v>10440</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="L2" s="38"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="n">
-        <v>44012</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="38" t="n">
-        <v>145.88</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="38"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="n">
-        <v>44012</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="38" t="n">
-        <v>3158.55</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="38"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="n">
-        <v>44017</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="38" t="n">
-        <v>2923.52</v>
-      </c>
-      <c r="D5" s="34" t="n">
-        <v>44017</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="38" t="n">
-        <v>2923.52</v>
-      </c>
-      <c r="G5" s="34" t="n">
-        <v>44034</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="I5" s="38" t="n">
-        <v>8000</v>
-      </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="38"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="n">
-        <v>44034</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="38" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D6" s="34" t="n">
-        <v>44080</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F6" s="38" t="n">
-        <v>1516</v>
-      </c>
-      <c r="G6" s="34" t="n">
-        <v>44116</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="I6" s="38" t="n">
-        <v>1665.25</v>
-      </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="38"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="n">
-        <v>44061</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="38" t="n">
-        <v>414.99</v>
-      </c>
-      <c r="D7" s="34" t="n">
-        <v>44080</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F7" s="38" t="n">
-        <v>1856</v>
-      </c>
-      <c r="G7" s="34" t="n">
-        <v>44116</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="I7" s="38" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="38"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="n">
-        <v>44078</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="38" t="n">
-        <v>10440</v>
-      </c>
-      <c r="D8" s="34" t="n">
-        <v>44094</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="38" t="n">
-        <v>1850.2</v>
-      </c>
-      <c r="J8" s="34" t="n">
-        <v>44078</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="L8" s="38" t="n">
-        <v>10440</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="n">
-        <v>44080</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="38" t="n">
-        <v>1516</v>
-      </c>
-      <c r="D9" s="34" t="n">
-        <v>44106</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" s="38" t="n">
-        <v>807.73</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="38"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="n">
-        <v>44080</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="38" t="n">
-        <v>1856</v>
-      </c>
-      <c r="D10" s="34" t="n">
-        <v>44140</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="38" t="n">
-        <v>538.12</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="38"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="n">
-        <v>44094</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="38" t="n">
-        <v>1850.2</v>
-      </c>
-      <c r="D11" s="34" t="n">
-        <v>44140</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F11" s="38" t="n">
-        <v>1305.64</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="38"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="n">
-        <v>44103</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="38" t="n">
-        <v>3780.44</v>
-      </c>
-      <c r="D12" s="34" t="n">
-        <v>44606</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F12" s="38" t="n">
-        <v>4676.7</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="38"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="n">
-        <v>44106</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="38" t="n">
-        <v>807.73</v>
-      </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="38"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34" t="n">
-        <v>44111</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="38" t="n">
-        <v>335.41</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="38"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="n">
-        <v>44116</v>
+      <c r="A15" s="35" t="n">
+        <v>44630</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" s="38" t="n">
-        <v>1665.25</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="38"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="38"/>
+        <v>179</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="n">
-        <v>44116</v>
+      <c r="A16" s="35" t="n">
+        <v>44641</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="38" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="38"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="38"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="n">
-        <v>44117</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="38" t="n">
-        <v>190</v>
-      </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="38"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="n">
-        <v>44128</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="38" t="n">
-        <v>233.68</v>
-      </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="38"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34" t="n">
-        <v>44139</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="38" t="n">
-        <v>10080.37</v>
-      </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="38"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="n">
-        <v>44140</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="38" t="n">
-        <v>538.12</v>
-      </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="38"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="n">
-        <v>44140</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" s="38" t="n">
-        <v>1305.64</v>
-      </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="38"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="n">
-        <v>44167</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="38" t="n">
-        <v>6059.92</v>
-      </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="38"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="n">
-        <v>44169</v>
-      </c>
-      <c r="B23" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C23" s="38" t="n">
-        <v>242.88</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34" t="n">
-        <v>44175</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="38" t="n">
-        <v>429.26</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34" t="n">
-        <v>44180</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="38" t="n">
-        <v>2282.23</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34" t="n">
-        <v>44180</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="38" t="n">
-        <v>1608.51</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34" t="n">
-        <v>44246</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="38" t="n">
-        <v>3748.86</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="34" t="n">
-        <v>44273</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" s="38" t="n">
-        <v>6779.29</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34" t="n">
-        <v>44277</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="38" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="34" t="n">
-        <v>44278</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30" s="38" t="n">
-        <v>14875</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="34" t="n">
-        <v>44278</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C31" s="38" t="n">
-        <v>1083.95</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="34" t="n">
-        <v>44292</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C32" s="38" t="n">
-        <v>1892.6</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="34" t="n">
-        <v>44328</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="38" t="n">
-        <v>4250.68</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="34" t="n">
-        <v>44328</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="38" t="n">
-        <v>8496.11</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="34" t="n">
-        <v>44342</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C35" s="38" t="n">
-        <v>316.78</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="34" t="n">
-        <v>44342</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C36" s="38" t="n">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="34" t="n">
-        <v>44342</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="38" t="n">
-        <v>8449</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="34" t="n">
-        <v>44383</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C38" s="38" t="n">
-        <v>2999.01</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="34" t="n">
-        <v>44397</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C39" s="38" t="n">
-        <v>758.39</v>
+      <c r="C16" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -5600,100 +7405,146 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:C18"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="13.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="28" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="18.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="n">
-        <v>43854</v>
-      </c>
-      <c r="B3" s="39" t="n">
-        <v>1400</v>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="36" t="n">
+        <f aca="false">SUM(B5:B97)</f>
+        <v>2500</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="36" t="n">
+        <f aca="false">SUM(E5:E97)</f>
+        <v>20000</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="37" t="n">
+        <f aca="false">E2-B2</f>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="38" t="n">
+        <v>44683</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="36" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="40" t="n">
-        <v>12</v>
-      </c>
-      <c r="C6" s="40" t="n">
-        <v>45</v>
+        <v>189</v>
+      </c>
+      <c r="B6" s="36" t="n">
+        <v>500</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="36" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="A7" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="36" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="36" t="n">
+        <v>9500</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="31"/>
+      <c r="D8" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="36"/>
+      <c r="D9" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40" t="n">
-        <v>3250</v>
-      </c>
+      <c r="D10" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="36"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="40" t="n">
-        <v>1700</v>
-      </c>
-      <c r="C12" s="40"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="40" t="n">
-        <v>150</v>
-      </c>
-      <c r="C13" s="40"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="40" t="n">
-        <v>1100</v>
-      </c>
-      <c r="C14" s="40"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="40" t="n">
-        <v>1300</v>
-      </c>
-      <c r="C15" s="40"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="36"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="41" t="n">
-        <f aca="false">SUM(B12:B15)</f>
-        <v>4250</v>
-      </c>
+      <c r="A18" s="28"/>
+      <c r="B18" s="36"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="28"/>
+      <c r="B19" s="36"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="31"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="28"/>
+      <c r="B22" s="36"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="31"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="28"/>
+      <c r="B25" s="36"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Ausgaben2022.xlsx
+++ b/Ausgaben2022.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="226">
   <si>
     <t xml:space="preserve">Gehalt</t>
   </si>
@@ -2098,7 +2098,7 @@
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="11.57"/>
   </cols>
@@ -2903,7 +2903,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="23.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="39" width="11.52"/>
@@ -6103,7 +6103,7 @@
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
+      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6429,12 +6429,12 @@
       </c>
       <c r="H12" s="16" t="n">
         <f aca="false">J12/B4</f>
-        <v>0.105054318249141</v>
+        <v>0.115387529880204</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="10" t="n">
         <f aca="false">SUM(J14:J1048576)</f>
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="K12" s="16" t="n">
         <f aca="false">M12/B4</f>
@@ -6484,7 +6484,7 @@
       <c r="I13" s="18"/>
       <c r="J13" s="17" t="n">
         <f aca="false">J12-J11</f>
-        <v>-35.326</v>
+        <v>-5.32600000000002</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="18"/>
@@ -6820,6 +6820,12 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>30</v>
+      </c>
       <c r="K24" s="2" t="s">
         <v>47</v>
       </c>
@@ -7095,7 +7101,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
@@ -7228,7 +7234,7 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
@@ -7411,7 +7417,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">

--- a/Ausgaben2022.xlsx
+++ b/Ausgaben2022.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="226">
   <si>
     <t xml:space="preserve">Gehalt</t>
   </si>
@@ -2098,7 +2098,7 @@
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="11.57"/>
   </cols>
@@ -2903,7 +2903,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="23.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="39" width="11.52"/>
@@ -6103,7 +6103,7 @@
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6429,12 +6429,12 @@
       </c>
       <c r="H12" s="16" t="n">
         <f aca="false">J12/B4</f>
-        <v>0.115387529880204</v>
+        <v>0.106776520187651</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="10" t="n">
         <f aca="false">SUM(J14:J1048576)</f>
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="K12" s="16" t="n">
         <f aca="false">M12/B4</f>
@@ -6447,12 +6447,12 @@
       </c>
       <c r="N12" s="16" t="n">
         <f aca="false">P12/B4</f>
-        <v>0.123654099185054</v>
+        <v>0.132265108877607</v>
       </c>
       <c r="O12" s="16"/>
       <c r="P12" s="10" t="n">
         <f aca="false">SUM(P14:P1048576)</f>
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
@@ -6484,7 +6484,7 @@
       <c r="I13" s="18"/>
       <c r="J13" s="17" t="n">
         <f aca="false">J12-J11</f>
-        <v>-5.32600000000002</v>
+        <v>-30.326</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="18"/>
@@ -6496,7 +6496,7 @@
       <c r="O13" s="18"/>
       <c r="P13" s="17" t="n">
         <f aca="false">P12-P11</f>
-        <v>-76.489</v>
+        <v>-51.489</v>
       </c>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
@@ -6732,8 +6732,13 @@
       <c r="M19" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="O19" s="2"/>
+      <c r="P19" s="2" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H20" s="25" t="s">
@@ -6837,6 +6842,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <f aca="false">-$P19</f>
+        <v>-25</v>
+      </c>
       <c r="K25" s="19" t="s">
         <v>65</v>
       </c>
@@ -7101,7 +7113,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
@@ -7234,7 +7246,7 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
@@ -7417,7 +7429,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">

--- a/Ausgaben2022.xlsx
+++ b/Ausgaben2022.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="226">
   <si>
     <t xml:space="preserve">Gehalt</t>
   </si>
@@ -2098,7 +2098,7 @@
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="11.57"/>
   </cols>
@@ -2903,7 +2903,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="23.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="39" width="11.52"/>
@@ -6103,7 +6103,7 @@
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
+      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6429,12 +6429,12 @@
       </c>
       <c r="H12" s="16" t="n">
         <f aca="false">J12/B4</f>
-        <v>0.106776520187651</v>
+        <v>0.113665327941693</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="10" t="n">
         <f aca="false">SUM(J14:J1048576)</f>
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="K12" s="16" t="n">
         <f aca="false">M12/B4</f>
@@ -6484,7 +6484,7 @@
       <c r="I13" s="18"/>
       <c r="J13" s="17" t="n">
         <f aca="false">J12-J11</f>
-        <v>-30.326</v>
+        <v>-10.326</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="18"/>
@@ -6860,6 +6860,12 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>20</v>
+      </c>
       <c r="K26" s="19" t="s">
         <v>47</v>
       </c>
@@ -7113,7 +7119,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
@@ -7246,7 +7252,7 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
@@ -7429,7 +7435,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
@@ -7437,21 +7443,21 @@
       </c>
       <c r="B2" s="36" t="n">
         <f aca="false">SUM(B5:B97)</f>
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>159</v>
       </c>
       <c r="E2" s="36" t="n">
         <f aca="false">SUM(E5:E97)</f>
-        <v>20000</v>
+        <v>18500</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="37" t="n">
         <f aca="false">E2-B2</f>
-        <v>17500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7487,7 +7493,7 @@
         <v>189</v>
       </c>
       <c r="B6" s="36" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>190</v>
@@ -7507,7 +7513,7 @@
         <v>192</v>
       </c>
       <c r="E7" s="36" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Ausgaben2022.xlsx
+++ b/Ausgaben2022.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="228">
   <si>
     <t xml:space="preserve">Gehalt</t>
   </si>
@@ -508,6 +508,12 @@
   </si>
   <si>
     <t xml:space="preserve">glashater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hagebaumarkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eisdiele</t>
   </si>
   <si>
     <t xml:space="preserve">Summe</t>
@@ -2098,35 +2104,35 @@
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C1" s="39" t="n">
         <f aca="false">SUM(C3:C1501)</f>
         <v>116363.75</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F1" s="39" t="n">
         <f aca="false">SUM(F3:F1501)</f>
         <v>15473.91</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I1" s="39" t="n">
         <f aca="false">SUM(I3:I1501)</f>
         <v>9684.75</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L1" s="39" t="n">
         <f aca="false">SUM(L3:L1501)</f>
@@ -2143,7 +2149,7 @@
         <v>44012</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C3" s="39" t="n">
         <v>145.88</v>
@@ -2163,7 +2169,7 @@
         <v>44012</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C4" s="39" t="n">
         <v>3158.55</v>
@@ -2183,7 +2189,7 @@
         <v>44017</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C5" s="39" t="n">
         <v>2923.52</v>
@@ -2192,7 +2198,7 @@
         <v>44017</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F5" s="39" t="n">
         <v>2923.52</v>
@@ -2201,7 +2207,7 @@
         <v>44034</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I5" s="39" t="n">
         <v>8000</v>
@@ -2215,7 +2221,7 @@
         <v>44034</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C6" s="39" t="n">
         <v>8000</v>
@@ -2224,7 +2230,7 @@
         <v>44080</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F6" s="39" t="n">
         <v>1516</v>
@@ -2233,7 +2239,7 @@
         <v>44116</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I6" s="39" t="n">
         <v>1665.25</v>
@@ -2247,7 +2253,7 @@
         <v>44061</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C7" s="39" t="n">
         <v>414.99</v>
@@ -2256,7 +2262,7 @@
         <v>44080</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F7" s="39" t="n">
         <v>1856</v>
@@ -2265,7 +2271,7 @@
         <v>44116</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I7" s="39" t="n">
         <v>19.5</v>
@@ -2279,7 +2285,7 @@
         <v>44078</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C8" s="39" t="n">
         <v>10440</v>
@@ -2288,7 +2294,7 @@
         <v>44094</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F8" s="39" t="n">
         <v>1850.2</v>
@@ -2297,7 +2303,7 @@
         <v>44078</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L8" s="39" t="n">
         <v>10440</v>
@@ -2308,7 +2314,7 @@
         <v>44080</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C9" s="39" t="n">
         <v>1516</v>
@@ -2317,7 +2323,7 @@
         <v>44106</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F9" s="39" t="n">
         <v>807.73</v>
@@ -2334,7 +2340,7 @@
         <v>44080</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C10" s="39" t="n">
         <v>1856</v>
@@ -2343,7 +2349,7 @@
         <v>44140</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F10" s="39" t="n">
         <v>538.12</v>
@@ -2360,7 +2366,7 @@
         <v>44094</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C11" s="39" t="n">
         <v>1850.2</v>
@@ -2369,7 +2375,7 @@
         <v>44140</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F11" s="39" t="n">
         <v>1305.64</v>
@@ -2386,7 +2392,7 @@
         <v>44103</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C12" s="39" t="n">
         <v>3780.44</v>
@@ -2395,7 +2401,7 @@
         <v>44606</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F12" s="39" t="n">
         <v>4676.7</v>
@@ -2412,7 +2418,7 @@
         <v>44106</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C13" s="39" t="n">
         <v>807.73</v>
@@ -2432,7 +2438,7 @@
         <v>44111</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C14" s="39" t="n">
         <v>335.41</v>
@@ -2452,7 +2458,7 @@
         <v>44116</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C15" s="39" t="n">
         <v>1665.25</v>
@@ -2469,7 +2475,7 @@
         <v>44116</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C16" s="39" t="n">
         <v>19.5</v>
@@ -2486,7 +2492,7 @@
         <v>44117</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C17" s="39" t="n">
         <v>190</v>
@@ -2503,7 +2509,7 @@
         <v>44128</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C18" s="39" t="n">
         <v>233.68</v>
@@ -2520,7 +2526,7 @@
         <v>44139</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C19" s="39" t="n">
         <v>10080.37</v>
@@ -2537,7 +2543,7 @@
         <v>44140</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C20" s="39" t="n">
         <v>538.12</v>
@@ -2554,7 +2560,7 @@
         <v>44140</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C21" s="39" t="n">
         <v>1305.64</v>
@@ -2571,7 +2577,7 @@
         <v>44167</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C22" s="39" t="n">
         <v>6059.92</v>
@@ -2588,7 +2594,7 @@
         <v>44169</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C23" s="39" t="n">
         <v>242.88</v>
@@ -2599,7 +2605,7 @@
         <v>44175</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C24" s="39" t="n">
         <v>429.26</v>
@@ -2610,7 +2616,7 @@
         <v>44180</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C25" s="39" t="n">
         <v>2282.23</v>
@@ -2621,7 +2627,7 @@
         <v>44180</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C26" s="39" t="n">
         <v>1608.51</v>
@@ -2632,7 +2638,7 @@
         <v>44246</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C27" s="39" t="n">
         <v>3748.86</v>
@@ -2643,7 +2649,7 @@
         <v>44273</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C28" s="39" t="n">
         <v>6779.29</v>
@@ -2654,7 +2660,7 @@
         <v>44277</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C29" s="39" t="n">
         <v>450</v>
@@ -2665,7 +2671,7 @@
         <v>44278</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C30" s="39" t="n">
         <v>14875</v>
@@ -2676,7 +2682,7 @@
         <v>44278</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C31" s="39" t="n">
         <v>1083.95</v>
@@ -2687,7 +2693,7 @@
         <v>44292</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C32" s="39" t="n">
         <v>1892.6</v>
@@ -2698,7 +2704,7 @@
         <v>44328</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C33" s="39" t="n">
         <v>4250.68</v>
@@ -2709,7 +2715,7 @@
         <v>44328</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C34" s="39" t="n">
         <v>8496.11</v>
@@ -2720,7 +2726,7 @@
         <v>44342</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C35" s="39" t="n">
         <v>316.78</v>
@@ -2731,7 +2737,7 @@
         <v>44342</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C36" s="39" t="n">
         <v>2380</v>
@@ -2742,7 +2748,7 @@
         <v>44342</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C37" s="39" t="n">
         <v>8449</v>
@@ -2753,7 +2759,7 @@
         <v>44383</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C38" s="39" t="n">
         <v>2999.01</v>
@@ -2764,7 +2770,7 @@
         <v>44397</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C39" s="39" t="n">
         <v>758.39</v>
@@ -2841,7 +2847,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B12" s="41" t="n">
         <v>1700</v>
@@ -2850,7 +2856,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="28" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B13" s="41" t="n">
         <v>150</v>
@@ -2859,7 +2865,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="28" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B14" s="41" t="n">
         <v>1100</v>
@@ -2868,7 +2874,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B15" s="41" t="n">
         <v>1300</v>
@@ -2903,7 +2909,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="23.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="39" width="11.52"/>
@@ -2917,7 +2923,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B2" s="43" t="n">
         <f aca="false">SUM(D2:D999)</f>
@@ -2937,13 +2943,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D4" s="31"/>
       <c r="G4" s="31"/>
@@ -2953,7 +2959,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B5" s="39" t="n">
         <v>4756.87</v>
@@ -2968,7 +2974,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B6" s="39" t="n">
         <v>1146.3</v>
@@ -2986,7 +2992,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B7" s="39" t="n">
         <v>2371.91</v>
@@ -3003,7 +3009,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="28" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B8" s="39" t="n">
         <v>2186.62</v>
@@ -3018,7 +3024,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B9" s="39" t="n">
         <v>3114.23</v>
@@ -3033,7 +3039,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B10" s="39" t="n">
         <v>12270.95</v>
@@ -3052,7 +3058,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -3060,7 +3066,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="28" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B13" s="39" t="n">
         <v>5000</v>
@@ -3080,7 +3086,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -3088,7 +3094,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B16" s="39" t="n">
         <v>13634.43</v>
@@ -3107,7 +3113,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -3115,7 +3121,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B19" s="39" t="n">
         <v>10000</v>
@@ -3131,7 +3137,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B20" s="39" t="n">
         <v>15000</v>
@@ -3150,7 +3156,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -3158,7 +3164,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="28" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B23" s="39" t="n">
         <v>4433.44</v>
@@ -3170,7 +3176,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="28" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B24" s="39" t="n">
         <v>4633.27</v>
@@ -3186,12 +3192,12 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="28" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B27" s="39" t="n">
         <v>2376</v>
@@ -3207,12 +3213,12 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="31" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B30" s="39" t="n">
         <v>7080</v>
@@ -3228,12 +3234,12 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="31" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B33" s="39" t="n">
         <v>2522</v>
@@ -6103,7 +6109,7 @@
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
+      <selection pane="topLeft" activeCell="K31" activeCellId="0" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6438,12 +6444,12 @@
       </c>
       <c r="K12" s="16" t="n">
         <f aca="false">M12/B4</f>
-        <v>0.515282820002342</v>
+        <v>0.459483477194602</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="10" t="n">
         <f aca="false">SUM(M14:M1048576)</f>
-        <v>1496</v>
+        <v>1334</v>
       </c>
       <c r="N12" s="16" t="n">
         <f aca="false">P12/B4</f>
@@ -6490,7 +6496,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="17" t="n">
         <f aca="false">M12-M11</f>
-        <v>-100.793</v>
+        <v>-262.793</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="18"/>
@@ -6889,9 +6895,31 @@
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="21"/>
+      <c r="K28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="21" t="n">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K32" s="19"/>
@@ -6971,7 +6999,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B2" s="32" t="e">
         <f aca="false">SUM(B4:B16)</f>
@@ -6983,7 +7011,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B4" s="32" t="n">
         <v>2000</v>
@@ -6991,7 +7019,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B5" s="32" t="n">
         <f aca="false">Januar!P14</f>
@@ -7000,7 +7028,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B6" s="32" t="n">
         <f aca="false">Februar!P14</f>
@@ -7009,7 +7037,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B7" s="32" t="n">
         <f aca="false">Maerz!P14</f>
@@ -7018,7 +7046,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B8" s="32" t="n">
         <f aca="false">April!P14</f>
@@ -7027,7 +7055,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B9" s="32" t="e">
         <f aca="false">#REF!</f>
@@ -7036,7 +7064,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B10" s="32" t="e">
         <f aca="false">#REF!</f>
@@ -7045,7 +7073,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B11" s="32" t="e">
         <f aca="false">#REF!</f>
@@ -7054,7 +7082,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B12" s="32" t="e">
         <f aca="false">#REF!</f>
@@ -7063,7 +7091,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="28" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B13" s="33" t="e">
         <f aca="false">#REF!</f>
@@ -7072,7 +7100,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B14" s="33" t="e">
         <f aca="false">#REF!</f>
@@ -7081,7 +7109,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" s="32" t="e">
         <f aca="false">#REF!</f>
@@ -7090,7 +7118,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B16" s="32" t="e">
         <f aca="false">#REF!</f>
@@ -7119,15 +7147,15 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="32" t="n">
         <f aca="false">SUM(B3:B15)</f>
-        <v>5894</v>
+        <v>5694</v>
       </c>
       <c r="C1" s="32" t="n">
         <f aca="false">SUM(B3:B4)</f>
@@ -7140,7 +7168,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B3" s="32" t="n">
         <v>6320</v>
@@ -7148,7 +7176,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B4" s="32" t="n">
         <f aca="false">Januar!M21</f>
@@ -7157,7 +7185,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B5" s="32" t="n">
         <f aca="false">Februar!M21</f>
@@ -7166,7 +7194,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B6" s="32" t="n">
         <f aca="false">Maerz!M28</f>
@@ -7175,7 +7203,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B7" s="32" t="n">
         <f aca="false">April!M32</f>
@@ -7184,49 +7212,52 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="32"/>
+        <v>167</v>
+      </c>
+      <c r="B8" s="32" t="n">
+        <f aca="false">Mai!M28</f>
+        <v>-200</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B9" s="32"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B10" s="32"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B11" s="32"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="28" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B12" s="32"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B13" s="32"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B14" s="32"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" s="32"/>
     </row>
@@ -7252,20 +7283,20 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7273,13 +7304,13 @@
         <v>44392</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7287,13 +7318,13 @@
         <v>44410</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7301,18 +7332,18 @@
         <v>44411</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>178</v>
-      </c>
       <c r="D4" s="28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7320,13 +7351,13 @@
         <v>44440</v>
       </c>
       <c r="B8" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>178</v>
-      </c>
       <c r="D8" s="28" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7334,13 +7365,13 @@
         <v>44516</v>
       </c>
       <c r="B10" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>178</v>
-      </c>
       <c r="D10" s="28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7348,13 +7379,13 @@
         <v>44523</v>
       </c>
       <c r="B11" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>178</v>
-      </c>
       <c r="D11" s="28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7362,13 +7393,13 @@
         <v>44549</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7376,13 +7407,13 @@
         <v>44536</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7390,13 +7421,13 @@
         <v>44630</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7404,13 +7435,13 @@
         <v>44641</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -7435,18 +7466,18 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B2" s="36" t="n">
         <f aca="false">SUM(B5:B97)</f>
         <v>2000</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E2" s="36" t="n">
         <f aca="false">SUM(E5:E97)</f>
@@ -7462,13 +7493,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E4" s="38" t="n">
         <v>44683</v>
@@ -7476,13 +7507,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B5" s="36" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E5" s="36" t="n">
         <v>10000</v>
@@ -7490,13 +7521,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B6" s="36" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E6" s="36" t="n">
         <v>500</v>
@@ -7504,13 +7535,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B7" s="36" t="n">
         <v>2000</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E7" s="36" t="n">
         <v>8000</v>
@@ -7519,7 +7550,7 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31"/>
       <c r="D8" s="28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E8" s="36"/>
     </row>
@@ -7527,13 +7558,13 @@
       <c r="A9" s="28"/>
       <c r="B9" s="36"/>
       <c r="D9" s="28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E9" s="36"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="28" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E10" s="36"/>
     </row>

--- a/Ausgaben2022.xlsx
+++ b/Ausgaben2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Januar" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,13 +13,16 @@
     <sheet name="Maerz" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="April" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Mai" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="RücklageFun" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="TagesgeldPlus_Ruecklage" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Putzen" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Hausausgaben_Rest" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rechnungen Haus" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Nicolai" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Geplante Hausausgaben" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Juni" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Juli" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="August" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="RücklageFun" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="TagesgeldPlus_Ruecklage" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Putzen" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Rücklage" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Rechnungen Haus" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Nicolai" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Geplante Hausausgaben" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="289">
   <si>
     <t xml:space="preserve">Gehalt</t>
   </si>
@@ -483,6 +486,9 @@
     <t xml:space="preserve">Zahnbürste</t>
   </si>
   <si>
+    <t xml:space="preserve">Stromkosten</t>
+  </si>
+  <si>
     <t xml:space="preserve">Helm</t>
   </si>
   <si>
@@ -495,6 +501,12 @@
     <t xml:space="preserve">applied c++</t>
   </si>
   <si>
+    <t xml:space="preserve">Dewhurst und Geschwindeschneider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brembeläge</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ukraine Kinder</t>
   </si>
   <si>
@@ -510,10 +522,184 @@
     <t xml:space="preserve">glashater</t>
   </si>
   <si>
+    <t xml:space="preserve">Westafrika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zentralasien</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hagebaumarkt</t>
   </si>
   <si>
     <t xml:space="preserve">Eisdiele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gewindeschneider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schraubenziehr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waschanlage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underarmour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marktkauf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mottenspray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">embracing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boost graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alltricks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorbau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heimat für Geschwister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messchieber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reha-Zentrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einteiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaffedose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knarre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monatsprojekt 07/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Börbel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apotheke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eltern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OneShot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZweiradStadler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sattel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hibike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kassete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautful c++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rückerstattung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sideboarf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SriLanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratsche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MonatsProjekt Juli Literatur verfolgte Christen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamerun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinnwand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosovo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploitimg Modern C++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS Bike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oakley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indien 0822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventilator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steuerbüro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allgemein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volkner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kik</t>
   </si>
   <si>
     <t xml:space="preserve">Summe</t>
@@ -2098,683 +2284,128 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="11.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="39" t="n">
-        <f aca="false">SUM(C3:C1501)</f>
-        <v>116363.75</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="39" t="n">
-        <f aca="false">SUM(F3:F1501)</f>
-        <v>15473.91</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1" s="39" t="n">
-        <f aca="false">SUM(I3:I1501)</f>
-        <v>9684.75</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="L1" s="39" t="n">
-        <f aca="false">SUM(L3:L1501)</f>
-        <v>10440</v>
+      <c r="A1" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="32" t="n">
+        <f aca="false">SUM(B3:B15)</f>
+        <v>6844</v>
+      </c>
+      <c r="C1" s="32" t="n">
+        <f aca="false">SUM(B3:B4)</f>
+        <v>6422</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="n">
-        <v>44012</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="39" t="n">
-        <v>145.88</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="39"/>
+      <c r="A3" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="32" t="n">
+        <v>6320</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="n">
-        <v>44012</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="39" t="n">
-        <v>3158.55</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="39"/>
+      <c r="A4" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="32" t="n">
+        <f aca="false">Januar!M21</f>
+        <v>102</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="n">
-        <v>44017</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="39" t="n">
-        <v>2923.52</v>
-      </c>
-      <c r="D5" s="35" t="n">
-        <v>44017</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="39" t="n">
-        <v>2923.52</v>
-      </c>
-      <c r="G5" s="35" t="n">
-        <v>44034</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="I5" s="39" t="n">
-        <v>8000</v>
-      </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="39"/>
+      <c r="A5" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="32" t="n">
+        <f aca="false">Februar!M21</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="n">
-        <v>44034</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="39" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D6" s="35" t="n">
-        <v>44080</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" s="39" t="n">
-        <v>1516</v>
-      </c>
-      <c r="G6" s="35" t="n">
-        <v>44116</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="I6" s="39" t="n">
-        <v>1665.25</v>
-      </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="39"/>
+      <c r="A6" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="32" t="n">
+        <f aca="false">Maerz!M28</f>
+        <v>-445</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="n">
-        <v>44061</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="39" t="n">
-        <v>414.99</v>
-      </c>
-      <c r="D7" s="35" t="n">
-        <v>44080</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="39" t="n">
-        <v>1856</v>
-      </c>
-      <c r="G7" s="35" t="n">
-        <v>44116</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="I7" s="39" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="39"/>
+      <c r="A7" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="32" t="n">
+        <f aca="false">April!M32</f>
+        <v>-100</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="n">
-        <v>44078</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="39" t="n">
-        <v>10440</v>
-      </c>
-      <c r="D8" s="35" t="n">
-        <v>44094</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="F8" s="39" t="n">
-        <v>1850.2</v>
-      </c>
-      <c r="J8" s="35" t="n">
-        <v>44078</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="L8" s="39" t="n">
-        <v>10440</v>
+      <c r="A8" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="32" t="n">
+        <f aca="false">Mai!M28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="n">
-        <v>44080</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="39" t="n">
-        <v>1516</v>
-      </c>
-      <c r="D9" s="35" t="n">
-        <v>44106</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="39" t="n">
-        <v>807.73</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="39"/>
+      <c r="A9" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="32" t="n">
+        <f aca="false">Juni!M30</f>
+        <v>950</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="n">
-        <v>44080</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="39" t="n">
-        <v>1856</v>
-      </c>
-      <c r="D10" s="35" t="n">
-        <v>44140</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="F10" s="39" t="n">
-        <v>538.12</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="39"/>
+      <c r="A10" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="32"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35" t="n">
-        <v>44094</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="39" t="n">
-        <v>1850.2</v>
-      </c>
-      <c r="D11" s="35" t="n">
-        <v>44140</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="F11" s="39" t="n">
-        <v>1305.64</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="39"/>
+      <c r="A11" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="32"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="n">
-        <v>44103</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" s="39" t="n">
-        <v>3780.44</v>
-      </c>
-      <c r="D12" s="35" t="n">
-        <v>44606</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="F12" s="39" t="n">
-        <v>4676.7</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="39"/>
+      <c r="A12" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="32"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="n">
-        <v>44106</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" s="39" t="n">
-        <v>807.73</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="39"/>
+      <c r="A13" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="32"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="35" t="n">
-        <v>44111</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" s="39" t="n">
-        <v>335.41</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="39"/>
+      <c r="A14" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="32"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35" t="n">
-        <v>44116</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="39" t="n">
-        <v>1665.25</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="39"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="39"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="n">
-        <v>44116</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="39" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="39"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="39"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35" t="n">
-        <v>44117</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="39" t="n">
-        <v>190</v>
-      </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="39"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="35" t="n">
-        <v>44128</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="39" t="n">
-        <v>233.68</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="39"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="35" t="n">
-        <v>44139</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="39" t="n">
-        <v>10080.37</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="39"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35" t="n">
-        <v>44140</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="39" t="n">
-        <v>538.12</v>
-      </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="39"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="35" t="n">
-        <v>44140</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C21" s="39" t="n">
-        <v>1305.64</v>
-      </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="39"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="35" t="n">
-        <v>44167</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C22" s="39" t="n">
-        <v>6059.92</v>
-      </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="39"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="35" t="n">
-        <v>44169</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" s="39" t="n">
-        <v>242.88</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="35" t="n">
-        <v>44175</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C24" s="39" t="n">
-        <v>429.26</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="35" t="n">
-        <v>44180</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C25" s="39" t="n">
-        <v>2282.23</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="35" t="n">
-        <v>44180</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C26" s="39" t="n">
-        <v>1608.51</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="35" t="n">
-        <v>44246</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C27" s="39" t="n">
-        <v>3748.86</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="35" t="n">
-        <v>44273</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="C28" s="39" t="n">
-        <v>6779.29</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="35" t="n">
-        <v>44277</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C29" s="39" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="35" t="n">
-        <v>44278</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C30" s="39" t="n">
-        <v>14875</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="35" t="n">
-        <v>44278</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C31" s="39" t="n">
-        <v>1083.95</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="35" t="n">
-        <v>44292</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="39" t="n">
-        <v>1892.6</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="35" t="n">
-        <v>44328</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" s="39" t="n">
-        <v>4250.68</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="35" t="n">
-        <v>44328</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C34" s="39" t="n">
-        <v>8496.11</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="35" t="n">
-        <v>44342</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C35" s="39" t="n">
-        <v>316.78</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="35" t="n">
-        <v>44342</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C36" s="39" t="n">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="35" t="n">
-        <v>44342</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C37" s="39" t="n">
-        <v>8449</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="35" t="n">
-        <v>44383</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="C38" s="39" t="n">
-        <v>2999.01</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="35" t="n">
-        <v>44397</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39" s="39" t="n">
-        <v>758.39</v>
-      </c>
+      <c r="A15" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" s="32"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2788,6 +2419,1040 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="35" t="n">
+        <v>44392</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="n">
+        <v>44410</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="35" t="n">
+        <v>44411</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="35" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="35" t="n">
+        <v>44516</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="35" t="n">
+        <v>44523</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="35" t="n">
+        <v>44549</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="35" t="n">
+        <v>44536</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="35" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="35" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:H25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="36" t="n">
+        <f aca="false">SUM(B5:B97)</f>
+        <v>2000</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="36" t="n">
+        <f aca="false">SUM(E5:E97)</f>
+        <v>22500</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="37" t="n">
+        <f aca="false">E2-B2</f>
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="38" t="n">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="36" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="36" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="36" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="36" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="31"/>
+      <c r="D8" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="28"/>
+      <c r="B9" s="36"/>
+      <c r="D9" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="36"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" s="36"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="31"/>
+      <c r="B11" s="36"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="28"/>
+      <c r="B12" s="36"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="31"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="28"/>
+      <c r="B18" s="36"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="28"/>
+      <c r="B19" s="36"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="31"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="28"/>
+      <c r="B22" s="36"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="31"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="28"/>
+      <c r="B25" s="36"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="11.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="39" t="n">
+        <f aca="false">SUM(C3:C1501)</f>
+        <v>116363.75</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="39" t="n">
+        <f aca="false">SUM(F3:F1501)</f>
+        <v>15473.91</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="I1" s="39" t="n">
+        <f aca="false">SUM(I3:I1501)</f>
+        <v>9684.75</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="L1" s="39" t="n">
+        <f aca="false">SUM(L3:L1501)</f>
+        <v>10440</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="L2" s="39"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="39" t="n">
+        <v>145.88</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="39"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="35" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="39" t="n">
+        <v>3158.55</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="39"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="35" t="n">
+        <v>44017</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="39" t="n">
+        <v>2923.52</v>
+      </c>
+      <c r="D5" s="35" t="n">
+        <v>44017</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="39" t="n">
+        <v>2923.52</v>
+      </c>
+      <c r="G5" s="35" t="n">
+        <v>44034</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="I5" s="39" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J5" s="35"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="39"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="35" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="39" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D6" s="35" t="n">
+        <v>44080</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="39" t="n">
+        <v>1516</v>
+      </c>
+      <c r="G6" s="35" t="n">
+        <v>44116</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="I6" s="39" t="n">
+        <v>1665.25</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="39"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="35" t="n">
+        <v>44061</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="39" t="n">
+        <v>414.99</v>
+      </c>
+      <c r="D7" s="35" t="n">
+        <v>44080</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="39" t="n">
+        <v>1856</v>
+      </c>
+      <c r="G7" s="35" t="n">
+        <v>44116</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="I7" s="39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="39"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="35" t="n">
+        <v>44078</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="39" t="n">
+        <v>10440</v>
+      </c>
+      <c r="D8" s="35" t="n">
+        <v>44094</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="F8" s="39" t="n">
+        <v>1850.2</v>
+      </c>
+      <c r="J8" s="35" t="n">
+        <v>44078</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="L8" s="39" t="n">
+        <v>10440</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="35" t="n">
+        <v>44080</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="39" t="n">
+        <v>1516</v>
+      </c>
+      <c r="D9" s="35" t="n">
+        <v>44106</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="39" t="n">
+        <v>807.73</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="39"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="35" t="n">
+        <v>44080</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="39" t="n">
+        <v>1856</v>
+      </c>
+      <c r="D10" s="35" t="n">
+        <v>44140</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="39" t="n">
+        <v>538.12</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="39"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="35" t="n">
+        <v>44094</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="39" t="n">
+        <v>1850.2</v>
+      </c>
+      <c r="D11" s="35" t="n">
+        <v>44140</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="39" t="n">
+        <v>1305.64</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="39"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="35" t="n">
+        <v>44103</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="39" t="n">
+        <v>3780.44</v>
+      </c>
+      <c r="D12" s="35" t="n">
+        <v>44606</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="39" t="n">
+        <v>4676.7</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="35" t="n">
+        <v>44106</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="39" t="n">
+        <v>807.73</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="35" t="n">
+        <v>44111</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="39" t="n">
+        <v>335.41</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="39"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="35" t="n">
+        <v>44116</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="39" t="n">
+        <v>1665.25</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="39"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="39"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="35" t="n">
+        <v>44116</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="39"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="39"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="35" t="n">
+        <v>44117</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="39" t="n">
+        <v>190</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="35" t="n">
+        <v>44128</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="39" t="n">
+        <v>233.68</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="39"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="35" t="n">
+        <v>44139</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="39" t="n">
+        <v>10080.37</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="39"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="35" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="39" t="n">
+        <v>538.12</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="39"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="35" t="n">
+        <v>44140</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="39" t="n">
+        <v>1305.64</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="39"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="35" t="n">
+        <v>44167</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="39" t="n">
+        <v>6059.92</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="39"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="35" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="39" t="n">
+        <v>242.88</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="35" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" s="39" t="n">
+        <v>429.26</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="35" t="n">
+        <v>44180</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="39" t="n">
+        <v>2282.23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="35" t="n">
+        <v>44180</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" s="39" t="n">
+        <v>1608.51</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="35" t="n">
+        <v>44246</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="39" t="n">
+        <v>3748.86</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="35" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" s="39" t="n">
+        <v>6779.29</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="35" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C29" s="39" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="35" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C30" s="39" t="n">
+        <v>14875</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="35" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" s="39" t="n">
+        <v>1083.95</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="35" t="n">
+        <v>44292</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" s="39" t="n">
+        <v>1892.6</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="35" t="n">
+        <v>44328</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="39" t="n">
+        <v>4250.68</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="35" t="n">
+        <v>44328</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" s="39" t="n">
+        <v>8496.11</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="35" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C35" s="39" t="n">
+        <v>316.78</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="35" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" s="39" t="n">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="35" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="39" t="n">
+        <v>8449</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="35" t="n">
+        <v>44383</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" s="39" t="n">
+        <v>2999.01</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="35" t="n">
+        <v>44397</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39" s="39" t="n">
+        <v>758.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2847,7 +3512,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="28" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="B12" s="41" t="n">
         <v>1700</v>
@@ -2856,7 +3521,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="28" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="B13" s="41" t="n">
         <v>150</v>
@@ -2865,7 +3530,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="28" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="B14" s="41" t="n">
         <v>1100</v>
@@ -2874,7 +3539,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="B15" s="41" t="n">
         <v>1300</v>
@@ -2898,7 +3563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2909,7 +3574,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="25.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="39" width="11.52"/>
@@ -2923,7 +3588,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="B2" s="43" t="n">
         <f aca="false">SUM(D2:D999)</f>
@@ -2943,13 +3608,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="D4" s="31"/>
       <c r="G4" s="31"/>
@@ -2959,7 +3624,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="B5" s="39" t="n">
         <v>4756.87</v>
@@ -2974,7 +3639,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="B6" s="39" t="n">
         <v>1146.3</v>
@@ -2992,7 +3657,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="B7" s="39" t="n">
         <v>2371.91</v>
@@ -3009,7 +3674,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="28" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="B8" s="39" t="n">
         <v>2186.62</v>
@@ -3024,7 +3689,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="28" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="B9" s="39" t="n">
         <v>3114.23</v>
@@ -3039,7 +3704,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="B10" s="39" t="n">
         <v>12270.95</v>
@@ -3058,7 +3723,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="31" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -3066,7 +3731,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="28" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="B13" s="39" t="n">
         <v>5000</v>
@@ -3086,7 +3751,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="31" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -3094,7 +3759,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="B16" s="39" t="n">
         <v>13634.43</v>
@@ -3113,7 +3778,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="31" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -3121,7 +3786,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="B19" s="39" t="n">
         <v>10000</v>
@@ -3137,7 +3802,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="B20" s="39" t="n">
         <v>15000</v>
@@ -3156,7 +3821,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="31" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -3164,7 +3829,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="28" t="s">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="B23" s="39" t="n">
         <v>4433.44</v>
@@ -3176,7 +3841,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="28" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="B24" s="39" t="n">
         <v>4633.27</v>
@@ -3192,12 +3857,12 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="31" t="s">
-        <v>224</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="28" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="B27" s="39" t="n">
         <v>2376</v>
@@ -3213,12 +3878,12 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="31" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="B30" s="39" t="n">
         <v>7080</v>
@@ -3234,12 +3899,12 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="31" t="s">
-        <v>227</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="B33" s="39" t="n">
         <v>2522</v>
@@ -5186,8 +5851,8 @@
   </sheetPr>
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5574,7 +6239,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="17" t="n">
         <f aca="false">M12-M11</f>
-        <v>-0.792999999999893</v>
+        <v>-0.793000000000347</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="18"/>
@@ -6106,10 +6771,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K31" activeCellId="0" sqref="K31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M29" activeCellId="0" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6139,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2903.26</v>
+        <v>3022.85</v>
       </c>
       <c r="C2" s="2"/>
       <c r="G2" s="2"/>
@@ -6150,7 +6815,7 @@
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">SUM(S14:S1048576)</f>
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -6160,7 +6825,7 @@
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">SUM(B2:B3)</f>
-        <v>2903.26</v>
+        <v>3506.85</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -6264,7 +6929,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="10" t="n">
         <f aca="false">B2*B9</f>
-        <v>290.326</v>
+        <v>302.285</v>
       </c>
       <c r="E9" s="9" t="n">
         <v>0.1</v>
@@ -6272,7 +6937,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="11" t="n">
         <f aca="false">B2*E9</f>
-        <v>290.326</v>
+        <v>302.285</v>
       </c>
       <c r="H9" s="9" t="n">
         <v>0.1</v>
@@ -6280,7 +6945,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="n">
         <f aca="false">H9*B2</f>
-        <v>290.326</v>
+        <v>302.285</v>
       </c>
       <c r="K9" s="9" t="n">
         <v>0.55</v>
@@ -6288,7 +6953,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="10" t="n">
         <f aca="false">K9*B2</f>
-        <v>1596.793</v>
+        <v>1662.5675</v>
       </c>
       <c r="N9" s="9" t="n">
         <v>0.15</v>
@@ -6296,7 +6961,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="10" t="n">
         <f aca="false">B2*N9</f>
-        <v>435.489</v>
+        <v>453.4275</v>
       </c>
       <c r="Q9" s="9" t="s">
         <v>13</v>
@@ -6319,7 +6984,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="10" t="n">
         <f aca="false">B9*B4</f>
-        <v>290.326</v>
+        <v>350.685</v>
       </c>
       <c r="E10" s="9" t="n">
         <v>0.106697652969588</v>
@@ -6327,7 +6992,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="11" t="n">
         <f aca="false">E9*B4</f>
-        <v>290.326</v>
+        <v>350.685</v>
       </c>
       <c r="H10" s="9" t="n">
         <v>0.106697652969588</v>
@@ -6335,7 +7000,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="10" t="n">
         <f aca="false">B4*H9</f>
-        <v>290.326</v>
+        <v>350.685</v>
       </c>
       <c r="K10" s="9" t="n">
         <v>0.586837091332735</v>
@@ -6343,7 +7008,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="10" t="n">
         <f aca="false">K9*B4</f>
-        <v>1596.793</v>
+        <v>1928.7675</v>
       </c>
       <c r="N10" s="9" t="n">
         <v>0.160046479454382</v>
@@ -6351,7 +7016,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="10" t="n">
         <f aca="false">N9*B4</f>
-        <v>435.489</v>
+        <v>526.0275</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
@@ -6370,7 +7035,7 @@
       <c r="C11" s="15"/>
       <c r="D11" s="10" t="n">
         <f aca="false">SUM(B11+D10)</f>
-        <v>290.326</v>
+        <v>350.685</v>
       </c>
       <c r="E11" s="15" t="n">
         <v>0</v>
@@ -6378,7 +7043,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="10" t="n">
         <f aca="false">SUM(E11+G10)</f>
-        <v>290.326</v>
+        <v>350.685</v>
       </c>
       <c r="H11" s="15" t="n">
         <v>50</v>
@@ -6386,7 +7051,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="10" t="n">
         <f aca="false">SUM(H11+J10)</f>
-        <v>340.326</v>
+        <v>400.685</v>
       </c>
       <c r="K11" s="15" t="n">
         <v>0</v>
@@ -6394,7 +7059,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="10" t="n">
         <f aca="false">SUM(K11+M10)</f>
-        <v>1596.793</v>
+        <v>1928.7675</v>
       </c>
       <c r="N11" s="15" t="n">
         <v>0</v>
@@ -6402,7 +7067,7 @@
       <c r="O11" s="15"/>
       <c r="P11" s="10" t="n">
         <f aca="false">SUM(N11+P10)</f>
-        <v>435.489</v>
+        <v>526.0275</v>
       </c>
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
@@ -6417,48 +7082,48 @@
       </c>
       <c r="B12" s="16" t="n">
         <f aca="false">D12/B4</f>
-        <v>0.101392916927867</v>
+        <v>0.101050800576016</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="10" t="n">
         <f aca="false">SUM(D14:D1048576)</f>
-        <v>294.37</v>
+        <v>354.37</v>
       </c>
       <c r="E12" s="16" t="n">
         <f aca="false">G12/B4</f>
-        <v>0.0861100969255251</v>
+        <v>0.0998046680069008</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="11" t="n">
         <f aca="false">SUM(G14:G1048576)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="H12" s="16" t="n">
         <f aca="false">J12/B4</f>
-        <v>0.113665327941693</v>
+        <v>0.122617163551335</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="10" t="n">
         <f aca="false">SUM(J14:J1048576)</f>
-        <v>330</v>
+        <v>430</v>
       </c>
       <c r="K12" s="16" t="n">
         <f aca="false">M12/B4</f>
-        <v>0.459483477194602</v>
+        <v>0.560331921810172</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="10" t="n">
         <f aca="false">SUM(M14:M1048576)</f>
-        <v>1334</v>
+        <v>1965</v>
       </c>
       <c r="N12" s="16" t="n">
         <f aca="false">P12/B4</f>
-        <v>0.132265108877607</v>
+        <v>0.142007784764105</v>
       </c>
       <c r="O12" s="16"/>
       <c r="P12" s="10" t="n">
         <f aca="false">SUM(P14:P1048576)</f>
-        <v>384</v>
+        <v>498</v>
       </c>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
@@ -6478,31 +7143,31 @@
       <c r="C13" s="18"/>
       <c r="D13" s="17" t="n">
         <f aca="false">D12-D11</f>
-        <v>4.04399999999993</v>
+        <v>3.68499999999995</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
       <c r="G13" s="17" t="n">
         <f aca="false">G12-G11</f>
-        <v>-40.326</v>
+        <v>-0.685000000000002</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="18"/>
       <c r="J13" s="17" t="n">
         <f aca="false">J12-J11</f>
-        <v>-10.326</v>
+        <v>29.315</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="18"/>
       <c r="M13" s="17" t="n">
         <f aca="false">M12-M11</f>
-        <v>-262.793</v>
+        <v>36.2324999999998</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="18"/>
       <c r="P13" s="17" t="n">
         <f aca="false">P12-P11</f>
-        <v>-51.489</v>
+        <v>-28.0274999999999</v>
       </c>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
@@ -6519,7 +7184,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="20" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>19</v>
@@ -6528,7 +7193,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>21</v>
@@ -6556,6 +7221,15 @@
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="S14" s="2" t="n">
+        <v>484</v>
       </c>
       <c r="T14" s="19"/>
       <c r="U14" s="19"/>
@@ -6596,7 +7270,7 @@
         <v>40</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P15" s="2" t="n">
         <v>240</v>
@@ -6642,7 +7316,7 @@
         <v>47</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>36</v>
@@ -6683,7 +7357,7 @@
         <v>47</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P17" s="2" t="n">
         <v>8</v>
@@ -6713,7 +7387,7 @@
         <v>47</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>75</v>
@@ -6765,8 +7439,15 @@
       <c r="M20" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="N20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P20" s="2" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H21" s="27" t="s">
@@ -6787,8 +7468,15 @@
       <c r="M21" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P21" s="2" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H22" s="28" t="s">
@@ -6815,16 +7503,16 @@
         <v>56</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K23" s="28" t="s">
         <v>65</v>
       </c>
       <c r="L23" s="28" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M23" s="2" t="n">
         <v>36</v>
@@ -6835,13 +7523,13 @@
         <v>77</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>47</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M24" s="2" t="n">
         <v>21</v>
@@ -6859,10 +7547,10 @@
         <v>65</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6876,15 +7564,22 @@
         <v>47</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M26" s="2" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="H27" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>50</v>
+      </c>
       <c r="K27" s="19" t="s">
         <v>39</v>
       </c>
@@ -6893,8 +7588,14 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="28"/>
+      <c r="H28" s="28" t="s">
+        <v>6</v>
+      </c>
       <c r="I28" s="28"/>
+      <c r="J28" s="2" t="n">
+        <f aca="false">-M37</f>
+        <v>-120</v>
+      </c>
       <c r="K28" s="19" t="s">
         <v>19</v>
       </c>
@@ -6902,39 +7603,156 @@
         <v>20</v>
       </c>
       <c r="M28" s="21" t="n">
-        <v>-200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>50</v>
+      </c>
       <c r="K29" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M29" s="2" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>20</v>
+      </c>
       <c r="K30" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M30" s="2" t="n">
         <v>10</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="21"/>
+      <c r="K32" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="M32" s="21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K34" s="19"/>
+      <c r="K34" s="19" t="s">
+        <v>165</v>
+      </c>
       <c r="L34" s="19"/>
-      <c r="M34" s="21"/>
+      <c r="M34" s="21" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K37" s="19"/>
+      <c r="K37" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="L37" s="19"/>
-      <c r="M37" s="20"/>
+      <c r="M37" s="20" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -6986,10 +7804,2734 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:V37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M31" activeCellId="0" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="21" style="1" width="11.42"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>4827.25</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <f aca="false">SUM(S14:S1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <f aca="false">SUM(B2:B3)</f>
+        <v>4827.25</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="n">
+        <f aca="false">B2*B9</f>
+        <v>482.725</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11" t="n">
+        <f aca="false">B2*E9</f>
+        <v>482.725</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10" t="n">
+        <f aca="false">H9*B2</f>
+        <v>482.725</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10" t="n">
+        <f aca="false">K9*B2</f>
+        <v>2654.9875</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="10" t="n">
+        <f aca="false">B2*N9</f>
+        <v>724.0875</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" s="9"/>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="n">
+        <f aca="false">B9*B4</f>
+        <v>482.725</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="11" t="n">
+        <f aca="false">E9*B4</f>
+        <v>482.725</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10" t="n">
+        <f aca="false">B4*H9</f>
+        <v>482.725</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0.586837091332735</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10" t="n">
+        <f aca="false">K9*B4</f>
+        <v>2654.9875</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>0.160046479454382</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10" t="n">
+        <f aca="false">N9*B4</f>
+        <v>724.0875</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="10" t="n">
+        <f aca="false">SUM(B11+D10)</f>
+        <v>482.725</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="10" t="n">
+        <f aca="false">SUM(E11+G10)</f>
+        <v>482.725</v>
+      </c>
+      <c r="H11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="10" t="n">
+        <f aca="false">SUM(H11+J10)</f>
+        <v>482.725</v>
+      </c>
+      <c r="K11" s="15" t="n">
+        <v>-36</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="10" t="n">
+        <f aca="false">SUM(K11+M10)</f>
+        <v>2618.9875</v>
+      </c>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="10" t="n">
+        <f aca="false">SUM(N11+P10)</f>
+        <v>724.0875</v>
+      </c>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="16" t="n">
+        <f aca="false">D12/B4</f>
+        <v>0.102412346574136</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="10" t="n">
+        <f aca="false">SUM(D14:D1048576)</f>
+        <v>494.37</v>
+      </c>
+      <c r="E12" s="16" t="n">
+        <f aca="false">G12/B4</f>
+        <v>0.0994354964006422</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="11" t="n">
+        <f aca="false">SUM(G14:G1048576)</f>
+        <v>480</v>
+      </c>
+      <c r="H12" s="16" t="n">
+        <f aca="false">J12/B4</f>
+        <v>0.0963281371381221</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="10" t="n">
+        <f aca="false">SUM(J14:J1048576)</f>
+        <v>465</v>
+      </c>
+      <c r="K12" s="16" t="n">
+        <f aca="false">M12/B4</f>
+        <v>0.544243616966182</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="10" t="n">
+        <f aca="false">SUM(M14:M1048576)</f>
+        <v>2627.2</v>
+      </c>
+      <c r="N12" s="16" t="n">
+        <f aca="false">P12/B4</f>
+        <v>0.151846289295147</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="10" t="n">
+        <f aca="false">SUM(P14:P1048576)</f>
+        <v>733</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="10" t="n">
+        <f aca="false">SUM(V14:V1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17" t="n">
+        <f aca="false">D12-D11</f>
+        <v>11.6449999999999</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="17" t="n">
+        <f aca="false">G12-G11</f>
+        <v>-2.72500000000002</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17" t="n">
+        <f aca="false">J12-J11</f>
+        <v>-17.725</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="17" t="n">
+        <f aca="false">M12-M11</f>
+        <v>8.21249999999964</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="17" t="n">
+        <f aca="false">P12-P11</f>
+        <v>8.91250000000002</v>
+      </c>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="21" t="n">
+        <v>230</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="20" t="n">
+        <v>17</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>520</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="20"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="n">
+        <v>283.09</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="21" t="n">
+        <v>250</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20" t="n">
+        <v>50</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="20"/>
+      <c r="N15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="20"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="20" t="n">
+        <v>400</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>750</v>
+      </c>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="K27" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="K28" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L28" s="19"/>
+      <c r="M28" s="21" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K30" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="21"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="21"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:O12"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:V37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="21" style="1" width="11.42"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>3882.17</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <f aca="false">SUM(S14:S1048576)</f>
+        <v>1300</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <f aca="false">SUM(B2:B3)</f>
+        <v>5182.17</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="n">
+        <f aca="false">B2*B9</f>
+        <v>388.217</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11" t="n">
+        <f aca="false">B2*E9</f>
+        <v>388.217</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10" t="n">
+        <f aca="false">H9*B2</f>
+        <v>388.217</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10" t="n">
+        <f aca="false">K9*B2</f>
+        <v>2135.1935</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="10" t="n">
+        <f aca="false">B2*N9</f>
+        <v>582.3255</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" s="9"/>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="n">
+        <f aca="false">B9*B4</f>
+        <v>518.217</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="11" t="n">
+        <f aca="false">E9*B4</f>
+        <v>518.217</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10" t="n">
+        <f aca="false">B4*H9</f>
+        <v>518.217</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0.586837091332735</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10" t="n">
+        <f aca="false">K9*B4</f>
+        <v>2850.1935</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>0.160046479454382</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10" t="n">
+        <f aca="false">N9*B4</f>
+        <v>777.3255</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="10" t="n">
+        <f aca="false">SUM(B11+D10)</f>
+        <v>518.217</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="10" t="n">
+        <f aca="false">SUM(E11+G10)</f>
+        <v>518.217</v>
+      </c>
+      <c r="H11" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="10" t="n">
+        <f aca="false">SUM(H11+J10)</f>
+        <v>568.217</v>
+      </c>
+      <c r="K11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="10" t="n">
+        <f aca="false">SUM(K11+M10)</f>
+        <v>2850.1935</v>
+      </c>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="10" t="n">
+        <f aca="false">SUM(N11+P10)</f>
+        <v>777.3255</v>
+      </c>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="16" t="n">
+        <f aca="false">D12/B4</f>
+        <v>0.101187340438465</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="10" t="n">
+        <f aca="false">SUM(D14:D1048576)</f>
+        <v>524.37</v>
+      </c>
+      <c r="E12" s="16" t="n">
+        <f aca="false">G12/B4</f>
+        <v>0.100344064359139</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="11" t="n">
+        <f aca="false">SUM(G14:G1048576)</f>
+        <v>520</v>
+      </c>
+      <c r="H12" s="16" t="n">
+        <f aca="false">J12/B4</f>
+        <v>0.109992532085979</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="10" t="n">
+        <f aca="false">SUM(J14:J1048576)</f>
+        <v>570</v>
+      </c>
+      <c r="K12" s="16" t="n">
+        <f aca="false">M12/B4</f>
+        <v>0.560286520897616</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="10" t="n">
+        <f aca="false">SUM(M14:M1048576)</f>
+        <v>2903.5</v>
+      </c>
+      <c r="N12" s="16" t="n">
+        <f aca="false">P12/B4</f>
+        <v>0.154182514274908</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="10" t="n">
+        <f aca="false">SUM(P14:P1048576)</f>
+        <v>799</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="10" t="n">
+        <f aca="false">SUM(V14:V1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17" t="n">
+        <f aca="false">D12-D11</f>
+        <v>6.15299999999991</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="17" t="n">
+        <f aca="false">G12-G11</f>
+        <v>1.78300000000002</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17" t="n">
+        <f aca="false">J12-J11</f>
+        <v>1.78300000000002</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="17" t="n">
+        <f aca="false">M12-M11</f>
+        <v>53.3065000000001</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="17" t="n">
+        <f aca="false">P12-P11</f>
+        <v>21.6745</v>
+      </c>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="20" t="n">
+        <v>230</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="21" t="n">
+        <v>270</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="20" t="n">
+        <v>17</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>-700</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="S14" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="20"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="n">
+        <v>283.09</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="21" t="n">
+        <v>250</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20" t="n">
+        <v>50</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="20" t="n">
+        <v>49</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S15" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="20"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="20" t="n">
+        <v>400</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>1183</v>
+      </c>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>750</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P19" s="2" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="P20" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>-177</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <f aca="false">-M31</f>
+        <v>-150</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="M32" s="21" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="21"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:O12"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:V37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="21" style="1" width="11.42"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2903.26</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <f aca="false">SUM(S14:S1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <f aca="false">SUM(B2:B3)</f>
+        <v>2903.26</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="n">
+        <f aca="false">B2*B9</f>
+        <v>290.326</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11" t="n">
+        <f aca="false">B2*E9</f>
+        <v>290.326</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10" t="n">
+        <f aca="false">H9*B2</f>
+        <v>290.326</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10" t="n">
+        <f aca="false">K9*B2</f>
+        <v>1596.793</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="10" t="n">
+        <f aca="false">B2*N9</f>
+        <v>435.489</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" s="9"/>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="n">
+        <f aca="false">B9*B4</f>
+        <v>290.326</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="11" t="n">
+        <f aca="false">E9*B4</f>
+        <v>290.326</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0.106697652969588</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10" t="n">
+        <f aca="false">B4*H9</f>
+        <v>290.326</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0.586837091332735</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10" t="n">
+        <f aca="false">K9*B4</f>
+        <v>1596.793</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>0.160046479454382</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10" t="n">
+        <f aca="false">N9*B4</f>
+        <v>435.489</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="10" t="n">
+        <f aca="false">SUM(B11+D10)</f>
+        <v>290.326</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="10" t="n">
+        <f aca="false">SUM(E11+G10)</f>
+        <v>290.326</v>
+      </c>
+      <c r="H11" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="10" t="n">
+        <f aca="false">SUM(H11+J10)</f>
+        <v>340.326</v>
+      </c>
+      <c r="K11" s="15" t="n">
+        <v>-50</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="10" t="n">
+        <f aca="false">SUM(K11+M10)</f>
+        <v>1546.793</v>
+      </c>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="10" t="n">
+        <f aca="false">SUM(N11+P10)</f>
+        <v>435.489</v>
+      </c>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="16" t="n">
+        <f aca="false">D12/B4</f>
+        <v>0.101392916927867</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="10" t="n">
+        <f aca="false">SUM(D14:D1048576)</f>
+        <v>294.37</v>
+      </c>
+      <c r="E12" s="16" t="n">
+        <f aca="false">G12/B4</f>
+        <v>0.0861100969255251</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="11" t="n">
+        <f aca="false">SUM(G14:G1048576)</f>
+        <v>250</v>
+      </c>
+      <c r="H12" s="16" t="n">
+        <f aca="false">J12/B4</f>
+        <v>0.13605395314233</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="10" t="n">
+        <f aca="false">SUM(J14:J1048576)</f>
+        <v>395</v>
+      </c>
+      <c r="K12" s="16" t="n">
+        <f aca="false">M12/B4</f>
+        <v>0.553860143424977</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="10" t="n">
+        <f aca="false">SUM(M14:M1048576)</f>
+        <v>1608</v>
+      </c>
+      <c r="N12" s="16" t="n">
+        <f aca="false">P12/B4</f>
+        <v>0.114684871489291</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="10" t="n">
+        <f aca="false">SUM(P14:P1048576)</f>
+        <v>332.96</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="10" t="n">
+        <f aca="false">SUM(V14:V1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17" t="n">
+        <f aca="false">D12-D11</f>
+        <v>4.04399999999998</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="17" t="n">
+        <f aca="false">G12-G11</f>
+        <v>-40.326</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17" t="n">
+        <f aca="false">J12-J11</f>
+        <v>54.674</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="17" t="n">
+        <f aca="false">M12-M11</f>
+        <v>61.2070000000001</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="17" t="n">
+        <f aca="false">P12-P11</f>
+        <v>-102.529</v>
+      </c>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="20" t="n">
+        <v>17</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="20"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="n">
+        <v>283.09</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="21" t="n">
+        <v>250</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20" t="n">
+        <v>50</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="20" t="n">
+        <v>49</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="20"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20" t="n">
+        <v>25</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="20" t="n">
+        <v>400</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2" t="n">
+        <v>159.96</v>
+      </c>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>750</v>
+      </c>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>-500</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2" t="n">
+        <v>-444</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K26" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="K27" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="K28" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K29" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="21"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="21"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:O12"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A2:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6999,11 +10541,11 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="32" t="e">
+        <v>222</v>
+      </c>
+      <c r="B2" s="32" t="n">
         <f aca="false">SUM(B4:B16)</f>
-        <v>#REF!</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7011,7 +10553,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="B4" s="32" t="n">
         <v>2000</v>
@@ -7019,7 +10561,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="B5" s="32" t="n">
         <f aca="false">Januar!P14</f>
@@ -7028,7 +10570,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="B6" s="32" t="n">
         <f aca="false">Februar!P14</f>
@@ -7037,7 +10579,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="B7" s="32" t="n">
         <f aca="false">Maerz!P14</f>
@@ -7046,7 +10588,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="28" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="B8" s="32" t="n">
         <f aca="false">April!P14</f>
@@ -7055,551 +10597,70 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="32" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+        <v>228</v>
+      </c>
+      <c r="B9" s="32" t="n">
+        <f aca="false">Mai!P14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="32" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+        <v>229</v>
+      </c>
+      <c r="B10" s="32" t="n">
+        <f aca="false">Juni!P14</f>
+        <v>520</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="32" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+        <v>230</v>
+      </c>
+      <c r="B11" s="32" t="n">
+        <f aca="false">Juli!P14</f>
+        <v>-700</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="32" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+        <v>231</v>
+      </c>
+      <c r="B12" s="32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="33" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+        <v>232</v>
+      </c>
+      <c r="B13" s="33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="33" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+        <v>233</v>
+      </c>
+      <c r="B14" s="33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="32" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+        <v>234</v>
+      </c>
+      <c r="B15" s="32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="32" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="18.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="32" t="n">
-        <f aca="false">SUM(B3:B15)</f>
-        <v>5694</v>
-      </c>
-      <c r="C1" s="32" t="n">
-        <f aca="false">SUM(B3:B4)</f>
-        <v>6422</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28"/>
-      <c r="B2" s="32"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="32" t="n">
-        <v>6320</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="32" t="n">
-        <f aca="false">Januar!M21</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="32" t="n">
-        <f aca="false">Februar!M21</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="32" t="n">
-        <f aca="false">Maerz!M28</f>
-        <v>-445</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="32" t="n">
-        <f aca="false">April!M32</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="32" t="n">
-        <f aca="false">Mai!M28</f>
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="32"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="32"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="32"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="32"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="32"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="32"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" s="32"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="n">
-        <v>44392</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="n">
-        <v>44410</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="n">
-        <v>44411</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="n">
-        <v>44440</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="n">
-        <v>44516</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35" t="n">
-        <v>44523</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="n">
-        <v>44549</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="n">
-        <v>44536</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35" t="n">
-        <v>44630</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="n">
-        <v>44641</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:H25"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="18.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="36" t="n">
-        <f aca="false">SUM(B5:B97)</f>
-        <v>2000</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="36" t="n">
-        <f aca="false">SUM(E5:E97)</f>
-        <v>18500</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="37" t="n">
-        <f aca="false">E2-B2</f>
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="38" t="n">
-        <v>44683</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="36" t="n">
+        <v>235</v>
+      </c>
+      <c r="B16" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="36" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="36" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="36" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="36" t="n">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31"/>
-      <c r="D8" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" s="36"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28"/>
-      <c r="B9" s="36"/>
-      <c r="D9" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" s="36"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="36"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31"/>
-      <c r="B11" s="36"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28"/>
-      <c r="B12" s="36"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28"/>
-      <c r="B18" s="36"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28"/>
-      <c r="B19" s="36"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28"/>
-      <c r="B22" s="36"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="31"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28"/>
-      <c r="B25" s="36"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
